--- a/listing.xlsx
+++ b/listing.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\deverloper\puppeteer\upload displate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\code\tool auto up displate\toolupartdis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15867" windowHeight="6996"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15870" windowHeight="6990"/>
   </bookViews>
   <sheets>
     <sheet name="ketqua" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1623" uniqueCount="630">
   <si>
     <t>Collection</t>
   </si>
@@ -148,45 +148,6 @@
     <t>Category</t>
   </si>
   <si>
-    <t>anhtest</t>
-  </si>
-  <si>
-    <t>popba.jpg</t>
-  </si>
-  <si>
-    <t>Sergio Agüero.jpg</t>
-  </si>
-  <si>
-    <t>Manchester city</t>
-  </si>
-  <si>
-    <t>Manchester united</t>
-  </si>
-  <si>
-    <t>Paul popba</t>
-  </si>
-  <si>
-    <t>Kun Sergio Agüero</t>
-  </si>
-  <si>
-    <t>Paul popba art footbal player of Manchester United FC</t>
-  </si>
-  <si>
-    <t>Kun Sergio Agüero art footbal player of Manchester City FC</t>
-  </si>
-  <si>
-    <t>1,5,16</t>
-  </si>
-  <si>
-    <t>3,9,40</t>
-  </si>
-  <si>
-    <t>Kun Sergio Agüero art football player of Manchester City FC soccer super star goals</t>
-  </si>
-  <si>
-    <t>Paul popba art football player of Manchester United FC soccer super star goals</t>
-  </si>
-  <si>
     <t>Foldername</t>
   </si>
   <si>
@@ -203,6 +164,1752 @@
   </si>
   <si>
     <t>Title</t>
+  </si>
+  <si>
+    <t>Sci-Fi</t>
+  </si>
+  <si>
+    <t>Rock Royalty</t>
+  </si>
+  <si>
+    <t>New England Patriots</t>
+  </si>
+  <si>
+    <t>Game Of Thrones</t>
+  </si>
+  <si>
+    <t>Bob Ross</t>
+  </si>
+  <si>
+    <t>35,38,39</t>
+  </si>
+  <si>
+    <t>tom brady new england patriots 2</t>
+  </si>
+  <si>
+    <t>tom brady new england patriots 2 patriots nfl england new brady dallas cowboys broncos tom</t>
+  </si>
+  <si>
+    <t>tom brady new england patriots 3</t>
+  </si>
+  <si>
+    <t>tom brady new england patriots 3 patriots nfl england new brady dallas cowboys broncos tom</t>
+  </si>
+  <si>
+    <t>josh gordon new england patriots</t>
+  </si>
+  <si>
+    <t>josh gordon new england patriots patriots nfl england new brady dallas cowboys broncos tom</t>
+  </si>
+  <si>
+    <t>sony michel new england patriots 2</t>
+  </si>
+  <si>
+    <t>sony michel new england patriots 2 patriots nfl england new brady dallas cowboys broncos tom</t>
+  </si>
+  <si>
+    <t>cordarrelle patterson new england patriots</t>
+  </si>
+  <si>
+    <t>cordarrelle patterson new england patriots patriots nfl england new brady dallas cowboys broncos tom</t>
+  </si>
+  <si>
+    <t>bill belichick new england patriots</t>
+  </si>
+  <si>
+    <t>bill belichick new england patriots patriots nfl england new brady dallas cowboys broncos tom</t>
+  </si>
+  <si>
+    <t>tom brady new england patriots 4</t>
+  </si>
+  <si>
+    <t>tom brady new england patriots 4 patriots nfl england new brady dallas cowboys broncos tom</t>
+  </si>
+  <si>
+    <t>2018 new england patriots</t>
+  </si>
+  <si>
+    <t>2018 new england patriots patriots nfl england new brady dallas cowboys broncos tom</t>
+  </si>
+  <si>
+    <t>tom brady new england patriots 5</t>
+  </si>
+  <si>
+    <t>tom brady new england patriots 5 patriots nfl england new brady dallas cowboys broncos tom</t>
+  </si>
+  <si>
+    <t>vincent valentine new england patriots</t>
+  </si>
+  <si>
+    <t>vincent valentine new england patriots patriots nfl england new brady dallas cowboys broncos tom</t>
+  </si>
+  <si>
+    <t>phillip dorsett new england patriots</t>
+  </si>
+  <si>
+    <t>phillip dorsett new england patriots patriots nfl england new brady dallas cowboys broncos tom</t>
+  </si>
+  <si>
+    <t>james white new england patriots</t>
+  </si>
+  <si>
+    <t>james white new england patriots patriots nfl england new brady dallas cowboys broncos tom</t>
+  </si>
+  <si>
+    <t>rob gronkowski new england patriots 2</t>
+  </si>
+  <si>
+    <t>rob gronkowski new england patriots 2 patriots nfl england new brady dallas cowboys broncos tom</t>
+  </si>
+  <si>
+    <t>julian edelman new england patriots</t>
+  </si>
+  <si>
+    <t>julian edelman new england patriots patriots nfl england new brady dallas cowboys broncos tom</t>
+  </si>
+  <si>
+    <t>troy brown new england patriots</t>
+  </si>
+  <si>
+    <t>troy brown new england patriots patriots nfl england new brady dallas cowboys broncos tom</t>
+  </si>
+  <si>
+    <t>tom brady new england patriots 6</t>
+  </si>
+  <si>
+    <t>tom brady new england patriots 6 patriots nfl england new brady dallas cowboys broncos tom</t>
+  </si>
+  <si>
+    <t>vince wilfork new england patriots</t>
+  </si>
+  <si>
+    <t>vince wilfork new england patriots patriots nfl england new brady dallas cowboys broncos tom</t>
+  </si>
+  <si>
+    <t>cyrus jones new england patriots</t>
+  </si>
+  <si>
+    <t>cyrus jones new england patriots patriots nfl england new brady dallas cowboys broncos tom</t>
+  </si>
+  <si>
+    <t>eric rowe new england patriots</t>
+  </si>
+  <si>
+    <t>eric rowe new england patriots patriots nfl england new brady dallas cowboys broncos tom</t>
+  </si>
+  <si>
+    <t>rob ninkovich new england patriots</t>
+  </si>
+  <si>
+    <t>rob ninkovich new england patriots patriots nfl england new brady dallas cowboys broncos tom</t>
+  </si>
+  <si>
+    <t>duron harmon new england patriots</t>
+  </si>
+  <si>
+    <t>duron harmon new england patriots patriots nfl england new brady dallas cowboys broncos tom</t>
+  </si>
+  <si>
+    <t>tedy bruschi new england patriots</t>
+  </si>
+  <si>
+    <t>tedy bruschi new england patriots patriots nfl england new brady dallas cowboys broncos tom</t>
+  </si>
+  <si>
+    <t>chris hogan new england patriots</t>
+  </si>
+  <si>
+    <t>chris hogan new england patriots patriots nfl england new brady dallas cowboys broncos tom</t>
+  </si>
+  <si>
+    <t>mike gillislee new england patriots</t>
+  </si>
+  <si>
+    <t>mike gillislee new england patriots patriots nfl england new brady dallas cowboys broncos tom</t>
+  </si>
+  <si>
+    <t>drew bledsoe new england patriots</t>
+  </si>
+  <si>
+    <t>drew bledsoe new england patriots patriots nfl england new brady dallas cowboys broncos tom</t>
+  </si>
+  <si>
+    <t>tom brady new england patriots 9</t>
+  </si>
+  <si>
+    <t>tom brady new england patriots 9 patriots nfl england new brady dallas cowboys broncos tom</t>
+  </si>
+  <si>
+    <t>devin mccourty new england patriots</t>
+  </si>
+  <si>
+    <t>devin mccourty new england patriots patriots nfl england new brady dallas cowboys broncos tom</t>
+  </si>
+  <si>
+    <t>ty law new england patriots</t>
+  </si>
+  <si>
+    <t>ty law new england patriots patriots nfl england new brady dallas cowboys broncos tom</t>
+  </si>
+  <si>
+    <t>danny amendola new england patriots</t>
+  </si>
+  <si>
+    <t>danny amendola new england patriots patriots nfl england new brady dallas cowboys broncos tom</t>
+  </si>
+  <si>
+    <t>patrick chung new england patriots 2</t>
+  </si>
+  <si>
+    <t>patrick chung new england patriots 2 patriots nfl england new brady dallas cowboys broncos tom</t>
+  </si>
+  <si>
+    <t>danny amendola new england patriots 2</t>
+  </si>
+  <si>
+    <t>danny amendola new england patriots 2 patriots nfl england new brady dallas cowboys broncos tom</t>
+  </si>
+  <si>
+    <t>rob gronkowski new england patriots 4</t>
+  </si>
+  <si>
+    <t>rob gronkowski new england patriots 4 patriots nfl england new brady dallas cowboys broncos tom</t>
+  </si>
+  <si>
+    <t>tom brady new england patriots true patriots</t>
+  </si>
+  <si>
+    <t>tom brady new england patriots true patriots patriots nfl england new brady dallas cowboys broncos tom</t>
+  </si>
+  <si>
+    <t>james white new england patriots true</t>
+  </si>
+  <si>
+    <t>james white new england patriots true patriots nfl england new brady dallas cowboys broncos tom</t>
+  </si>
+  <si>
+    <t>corey dillon new england patriots</t>
+  </si>
+  <si>
+    <t>corey dillon new england patriots patriots nfl england new brady dallas cowboys broncos tom</t>
+  </si>
+  <si>
+    <t>kyle van noy new england patriots</t>
+  </si>
+  <si>
+    <t>kyle van noy new england patriots patriots nfl england new brady dallas cowboys broncos tom</t>
+  </si>
+  <si>
+    <t>danny woodhead new england patriots</t>
+  </si>
+  <si>
+    <t>danny woodhead new england patriots patriots nfl england new brady dallas cowboys broncos tom</t>
+  </si>
+  <si>
+    <t>donta hightower new england patriots</t>
+  </si>
+  <si>
+    <t>donta hightower new england patriots patriots nfl england new brady dallas cowboys broncos tom</t>
+  </si>
+  <si>
+    <t>tom brady new england patriots 7</t>
+  </si>
+  <si>
+    <t>tom brady new england patriots 7 patriots nfl england new brady dallas cowboys broncos tom</t>
+  </si>
+  <si>
+    <t>patrick chung new england patriots</t>
+  </si>
+  <si>
+    <t>patrick chung new england patriots patriots nfl england new brady dallas cowboys broncos tom</t>
+  </si>
+  <si>
+    <t>malcolm mitchell new england patriots</t>
+  </si>
+  <si>
+    <t>malcolm mitchell new england patriots patriots nfl england new brady dallas cowboys broncos tom</t>
+  </si>
+  <si>
+    <t>stephon gilmore new england patriots</t>
+  </si>
+  <si>
+    <t>stephon gilmore new england patriots patriots nfl england new brady dallas cowboys broncos tom</t>
+  </si>
+  <si>
+    <t>malcolm brown new england patriots</t>
+  </si>
+  <si>
+    <t>malcolm brown new england patriots patriots nfl england new brady dallas cowboys broncos tom</t>
+  </si>
+  <si>
+    <t>rob gronkowski new england patriots 3</t>
+  </si>
+  <si>
+    <t>rob gronkowski new england patriots 3 patriots nfl england new brady dallas cowboys broncos tom</t>
+  </si>
+  <si>
+    <t>james develin new england patriots</t>
+  </si>
+  <si>
+    <t>james develin new england patriots patriots nfl england new brady dallas cowboys broncos tom</t>
+  </si>
+  <si>
+    <t>rex burkhead new england patriots</t>
+  </si>
+  <si>
+    <t>rex burkhead new england patriots patriots nfl england new brady dallas cowboys broncos tom</t>
+  </si>
+  <si>
+    <t>jonathan jones new england patriots</t>
+  </si>
+  <si>
+    <t>jonathan jones new england patriots patriots nfl england new brady dallas cowboys broncos tom</t>
+  </si>
+  <si>
+    <t>randy moss new england patriots</t>
+  </si>
+  <si>
+    <t>randy moss new england patriots patriots nfl england new brady dallas cowboys broncos tom</t>
+  </si>
+  <si>
+    <t>marquis flowers new england patriots</t>
+  </si>
+  <si>
+    <t>marquis flowers new england patriots patriots nfl england new brady dallas cowboys broncos tom</t>
+  </si>
+  <si>
+    <t>tom brady new england patriots 8</t>
+  </si>
+  <si>
+    <t>tom brady new england patriots 8 patriots nfl england new brady dallas cowboys broncos tom</t>
+  </si>
+  <si>
+    <t>trey flowers new england patriots</t>
+  </si>
+  <si>
+    <t>trey flowers new england patriots patriots nfl england new brady dallas cowboys broncos tom</t>
+  </si>
+  <si>
+    <t>julian edelman new england patriots 2</t>
+  </si>
+  <si>
+    <t>julian edelman new england patriots 2 patriots nfl england new brady dallas cowboys broncos tom</t>
+  </si>
+  <si>
+    <t>jerod mayo new england patriots</t>
+  </si>
+  <si>
+    <t>jerod mayo new england patriots patriots nfl england new brady dallas cowboys broncos tom</t>
+  </si>
+  <si>
+    <t>vincent valentine new england patriots 2</t>
+  </si>
+  <si>
+    <t>vincent valentine new england patriots 2 patriots nfl england new brady dallas cowboys broncos tom</t>
+  </si>
+  <si>
+    <t>New England Patriots 2</t>
+  </si>
+  <si>
+    <t>tumblr_nuhexpAnXs1s0oj7go1_r1_1280-1-500x500.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New England Patriots </t>
+  </si>
+  <si>
+    <t>The 2015 New England Patriots</t>
+  </si>
+  <si>
+    <t>The 2015 New England Patriots patriots nfl football england new brady sport tom bowl</t>
+  </si>
+  <si>
+    <t>tumblr_nrjsf6LlgK1s0oj7go1_1280-1-500x500.jpg</t>
+  </si>
+  <si>
+    <t>Julian Edelman New England Patriots</t>
+  </si>
+  <si>
+    <t>Julian Edelman New England Patriots patriots nfl football england new brady sport tom bowl</t>
+  </si>
+  <si>
+    <t>tumblr_nqqaveSn2x1s0oj7go1_640-1-500x500.jpg</t>
+  </si>
+  <si>
+    <t>Bill Belichick New England Patriots</t>
+  </si>
+  <si>
+    <t>Bill Belichick New England Patriots patriots nfl football england new brady sport tom bowl</t>
+  </si>
+  <si>
+    <t>tumblr_nq3xrrtyhy1s0oj7go1_640-1-500x500.jpg</t>
+  </si>
+  <si>
+    <t>Tom Brady New England Patriots</t>
+  </si>
+  <si>
+    <t>Tom Brady New England Patriots patriots nfl football england new brady sport tom bowl</t>
+  </si>
+  <si>
+    <t>tumblr_no3i22CeIa1s0oj7go1_640-1-500x500.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tom Brady New England Patriots </t>
+  </si>
+  <si>
+    <t>Tom Brady New England Patriots  patriots nfl football england new brady sport tom bowl</t>
+  </si>
+  <si>
+    <t>tumblr_nnla0uiOkG1s0oj7go1_1280-1-500x500.jpg</t>
+  </si>
+  <si>
+    <t>Rob Gronkowski New England Patriots</t>
+  </si>
+  <si>
+    <t>Rob Gronkowski New England Patriots patriots nfl football england new brady sport tom bowl</t>
+  </si>
+  <si>
+    <t>tumblr_nn8gw7xsBy1s0oj7go1_640-1-500x500.jpg</t>
+  </si>
+  <si>
+    <t>tumblr_nmk6isKOO91s0oj7go1_640-1-500x500.jpg</t>
+  </si>
+  <si>
+    <t>tumblr_nmgqqlCLln1s0oj7go1_1280-1-500x500.jpg</t>
+  </si>
+  <si>
+    <t>tumblr_ngah7gGzFP1s0oj7go1_640-1-500x500.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vince Wilfork New England Patriots </t>
+  </si>
+  <si>
+    <t>Vince Wilfork New England Patriots  patriots nfl football england new brady sport tom bowl</t>
+  </si>
+  <si>
+    <t>tumblr_nkcousSJD91s0oj7go1_640-1-500x500.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Darrelle Revis New England Patriots </t>
+  </si>
+  <si>
+    <t>Darrelle Revis New England Patriots  patriots nfl football england new brady sport tom bowl</t>
+  </si>
+  <si>
+    <t>tumblr_nk3kd2gN4K1unblqwo1_1280-1-500x500.jpg</t>
+  </si>
+  <si>
+    <t>primesportsedits: Tom Brady New England Patriots</t>
+  </si>
+  <si>
+    <t>primesportsedits: Tom Brady New England Patriots patriots nfl football england new brady sport tom bowl</t>
+  </si>
+  <si>
+    <t>tumblr_njha20qiy31s0oj7go1_1280-1-500x500.jpg</t>
+  </si>
+  <si>
+    <t>Jerod Mayo New England Patriots</t>
+  </si>
+  <si>
+    <t>Jerod Mayo New England Patriots patriots nfl football england new brady sport tom bowl</t>
+  </si>
+  <si>
+    <t>tumblr_nibv62woSr1s0oj7go1_1280-1-500x500.jpg</t>
+  </si>
+  <si>
+    <t>tumblr_nhkdbxIN0e1s0oj7go1_1280-1-500x500.jpg</t>
+  </si>
+  <si>
+    <t>Brandon LaFell New England Patriots</t>
+  </si>
+  <si>
+    <t>Brandon LaFell New England Patriots patriots nfl football england new brady sport tom bowl</t>
+  </si>
+  <si>
+    <t>tumblr_ngajm5sn5i1s0oj7go1_640-1-500x500.jpg</t>
+  </si>
+  <si>
+    <t>tumblr_ngaja24GJE1s0oj7go1_640-1-500x500.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bill Belichick New England Patriots </t>
+  </si>
+  <si>
+    <t>Bill Belichick New England Patriots  patriots nfl football england new brady sport tom bowl</t>
+  </si>
+  <si>
+    <t>tumblr_ngaizhXntN1s0oj7go1_640-1-500x500.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rob Gronkowski New England Patriots </t>
+  </si>
+  <si>
+    <t>Rob Gronkowski New England Patriots  patriots nfl football england new brady sport tom bowl</t>
+  </si>
+  <si>
+    <t>tumblr_ngagwqSAx61s0oj7go1_640-1-500x500.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Julian Edelman New England Patriots </t>
+  </si>
+  <si>
+    <t>Julian Edelman New England Patriots  patriots nfl football england new brady sport tom bowl</t>
+  </si>
+  <si>
+    <t>tumblr_ngago2jBtD1s0oj7go1_640-1-500x500.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LeGarrette Blount New England Patriots </t>
+  </si>
+  <si>
+    <t>LeGarrette Blount New England Patriots  patriots nfl football england new brady sport tom bowl</t>
+  </si>
+  <si>
+    <t>tumblr_ngage8Pb1X1s0oj7go1_640-1-500x500.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stephen Gostkowski New England Patriots </t>
+  </si>
+  <si>
+    <t>Stephen Gostkowski New England Patriots  patriots nfl football england new brady sport tom bowl</t>
+  </si>
+  <si>
+    <t>tumblr_ngadgyBGHL1s0oj7go1_640-1-500x500.jpg</t>
+  </si>
+  <si>
+    <t>tumblr_ngadca3Huw1s0oj7go1_640-1-500x500.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Devin McCourty New England Patriots </t>
+  </si>
+  <si>
+    <t>Devin McCourty New England Patriots  patriots nfl football england new brady sport tom bowl</t>
+  </si>
+  <si>
+    <t>tumblr_ngad8z3GUQ1s0oj7go1_640-1-500x500.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chandler Jones New England Patriots </t>
+  </si>
+  <si>
+    <t>Chandler Jones New England Patriots  patriots nfl football england new brady sport tom bowl</t>
+  </si>
+  <si>
+    <t>tumblr_ng84fuCSm91s0oj7go1_1280-1-500x500.jpg</t>
+  </si>
+  <si>
+    <t>LeGarrette Blount New England Patriots</t>
+  </si>
+  <si>
+    <t>LeGarrette Blount New England Patriots patriots nfl football england new brady sport tom bowl</t>
+  </si>
+  <si>
+    <t>tumblr_nfrtn4U27x1s0oj7go1_640-1-500x500.jpg</t>
+  </si>
+  <si>
+    <t>tumblr_neulm19quu1s0oj7go1_1280-1-500x500.jpg</t>
+  </si>
+  <si>
+    <t>tumblr_nesw6bEHQj1s0oj7go1_1280-1-500x500.jpg</t>
+  </si>
+  <si>
+    <t>tumblr_ne8aao0d2H1s0oj7go1_640-1-500x500.jpg</t>
+  </si>
+  <si>
+    <t>Danny Amendola New England Patriots</t>
+  </si>
+  <si>
+    <t>Danny Amendola New England Patriots patriots nfl football england new brady sport tom bowl</t>
+  </si>
+  <si>
+    <t>tumblr_n6o5b7gSBo1s0oj7go1_640-1-500x500.jpg</t>
+  </si>
+  <si>
+    <t>tumblr_nczl8s9yTX1s0oj7go1_640-1-500x500.jpg</t>
+  </si>
+  <si>
+    <t>tumblr_ncz4thOpW81s0oj7go1_640-1-500x500.jpg</t>
+  </si>
+  <si>
+    <t>tumblr_ncptvtpIKP1s0oj7go1_1280-1-500x500.jpg</t>
+  </si>
+  <si>
+    <t>tumblr_ncot6x1EZx1s0oj7go1_1280-1-500x500.jpg</t>
+  </si>
+  <si>
+    <t>tumblr_nc5nvuuVF91s0oj7go1_640-1-500x500.jpg</t>
+  </si>
+  <si>
+    <t>tumblr_nbw7ezsD6b1s0oj7go1_640-1-500x500.jpg</t>
+  </si>
+  <si>
+    <t>Darrelle Revis New England Patriots</t>
+  </si>
+  <si>
+    <t>Darrelle Revis New England Patriots patriots nfl football england new brady sport tom bowl</t>
+  </si>
+  <si>
+    <t>tumblr_nbi3c52u0i1s0oj7go1_r1_640-1-500x500.jpg</t>
+  </si>
+  <si>
+    <t>New England Patriots (2014)</t>
+  </si>
+  <si>
+    <t>New England Patriots (2014) patriots nfl football england new brady sport tom bowl</t>
+  </si>
+  <si>
+    <t>tumblr_nb78l9DVk41s0oj7go1_r1_1280-1-500x500.jpg</t>
+  </si>
+  <si>
+    <t>Deion Branch New England Patriots</t>
+  </si>
+  <si>
+    <t>Deion Branch New England Patriots patriots nfl football england new brady sport tom bowl</t>
+  </si>
+  <si>
+    <t>tumblr_namsb6KRVp1s0oj7go1_640-1-500x500.jpg</t>
+  </si>
+  <si>
+    <t>tumblr_nakqoiF0np1s0oj7go1_640-1-500x500.jpg</t>
+  </si>
+  <si>
+    <t>Shane Vereen New England Patriots</t>
+  </si>
+  <si>
+    <t>Shane Vereen New England Patriots patriots nfl football england new brady sport tom bowl</t>
+  </si>
+  <si>
+    <t>tumblr_na57hf62eZ1s0oj7go1_640-1-500x500.jpg</t>
+  </si>
+  <si>
+    <t>Andre Carter New England Patriots</t>
+  </si>
+  <si>
+    <t>Andre Carter New England Patriots patriots nfl football england new brady sport tom bowl</t>
+  </si>
+  <si>
+    <t>tumblr_n9lptySWWo1s0oj7go1_640-1-500x500.jpg</t>
+  </si>
+  <si>
+    <t>tumblr_n9110jJMud1s0oj7go1_640-1-500x500.jpg</t>
+  </si>
+  <si>
+    <t>Stevan Ridley New England Patriots</t>
+  </si>
+  <si>
+    <t>Stevan Ridley New England Patriots patriots nfl football england new brady sport tom bowl</t>
+  </si>
+  <si>
+    <t>tumblr_n8iz34cisv1s0oj7go1_640-1-500x500.jpg</t>
+  </si>
+  <si>
+    <t>tumblr_n8cnuaR87z1s0oj7go1_1280-1-500x500.jpg</t>
+  </si>
+  <si>
+    <t>tumblr_n7knhgFlBU1s0oj7go1_640-1-500x500.jpg</t>
+  </si>
+  <si>
+    <t>Logan Mankins New England Patriots</t>
+  </si>
+  <si>
+    <t>Logan Mankins New England Patriots patriots nfl football england new brady sport tom bowl</t>
+  </si>
+  <si>
+    <t>tumblr_n6z06un3F21s0oj7go1_640-1-500x500.jpg</t>
+  </si>
+  <si>
+    <t>tumblr_n02uv8P6Oc1s0oj7go1_r1_1280-1-500x500.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peyton Manning Denver Broncos </t>
+  </si>
+  <si>
+    <t>Peyton Manning Denver Broncos  patriots nfl football england new brady sport tom bowl</t>
+  </si>
+  <si>
+    <t>tumblr_n67gdptTPU1s0oj7go1_r2_640-1-500x500.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robert Kraft Bill Belichick Tom Brady </t>
+  </si>
+  <si>
+    <t>Robert Kraft Bill Belichick Tom Brady  patriots nfl football england new brady sport tom bowl</t>
+  </si>
+  <si>
+    <t>tumblr_n4gf3lPbFb1s0oj7go1_640-1-500x500.jpg</t>
+  </si>
+  <si>
+    <t>tumblr_n5oa26gpLS1s0oj7go1_r1_640-1-500x500.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bill Belichick Jerod Mayo </t>
+  </si>
+  <si>
+    <t>Bill Belichick Jerod Mayo  patriots nfl football england new brady sport tom bowl</t>
+  </si>
+  <si>
+    <t>tumblr_n5hj9jE87p1s0oj7go1_640-1-500x500.jpg</t>
+  </si>
+  <si>
+    <t>tumblr_n5dgt7TPFN1s0oj7go1_1280-1-500x500.jpg</t>
+  </si>
+  <si>
+    <t>Jimmy Garappolo New England Patriots</t>
+  </si>
+  <si>
+    <t>Jimmy Garappolo New England Patriots patriots nfl football england new brady sport tom bowl</t>
+  </si>
+  <si>
+    <t>tumblr_n5d3fy7Fdc1s0oj7go1_640-1-500x500.jpg</t>
+  </si>
+  <si>
+    <t>Dominique Easley New England Patriots</t>
+  </si>
+  <si>
+    <t>Dominique Easley New England Patriots patriots nfl football england new brady sport tom bowl</t>
+  </si>
+  <si>
+    <t>tumblr_n588r5AevS1s0oj7go1_640-1-500x500.jpg</t>
+  </si>
+  <si>
+    <t>Devin McCourty New England Patriots</t>
+  </si>
+  <si>
+    <t>Devin McCourty New England Patriots patriots nfl football england new brady sport tom bowl</t>
+  </si>
+  <si>
+    <t>tumblr_n4vbiybfJM1s0oj7go1_r1_1280-1-500x500.jpg</t>
+  </si>
+  <si>
+    <t>tumblr_n4741yFrKC1s0oj7go1_640-1-500x500.jpg</t>
+  </si>
+  <si>
+    <t>tumblr_n3oowiVnJm1s0oj7go1_640-1-500x500.jpg</t>
+  </si>
+  <si>
+    <t>tumblr_n3do28BpgK1s0oj7go1_640-1-500x500.jpg</t>
+  </si>
+  <si>
+    <t>tumblr_n30qbe60Sk1s0oj7go1_640-1-500x500.jpg</t>
+  </si>
+  <si>
+    <t>tumblr_mjbiquZ6iu1s0oj7go1_r1_1280-1-500x500.jpg</t>
+  </si>
+  <si>
+    <t>tumblr_n2wwowcLBb1s0oj7go1_1280-1-500x500.jpg</t>
+  </si>
+  <si>
+    <t>tumblr_n2skkwVvQz1s0oj7go1_r1_1280-1-500x500.jpg</t>
+  </si>
+  <si>
+    <t>Darelle Revis Bill Belichick (New England Patriots)</t>
+  </si>
+  <si>
+    <t>Darelle Revis Bill Belichick (New England Patriots) patriots nfl football england new brady sport tom bowl</t>
+  </si>
+  <si>
+    <t>tumblr_n2jwimod4Z1s0oj7go1_r1_1280-1-500x500.jpg</t>
+  </si>
+  <si>
+    <t>Randy Moss New England Patriots</t>
+  </si>
+  <si>
+    <t>Randy Moss New England Patriots patriots nfl football england new brady sport tom bowl</t>
+  </si>
+  <si>
+    <t>tumblr_n2crg9E6Ov1s0oj7go1_r1_500-1-480x500.jpg</t>
+  </si>
+  <si>
+    <t>Darelle Revis New England Patriots</t>
+  </si>
+  <si>
+    <t>Darelle Revis New England Patriots patriots nfl football england new brady sport tom bowl</t>
+  </si>
+  <si>
+    <t>tumblr_n26bwvafcO1s0oj7go1_r2_1280-1-500x500.jpg</t>
+  </si>
+  <si>
+    <t>New England Patriots  patriots nfl football england new brady sport tom bowl</t>
+  </si>
+  <si>
+    <t>tumblr_n1teapUu901s0oj7go1_r1_1280-1-500x500.jpg</t>
+  </si>
+  <si>
+    <t>tumblr_n1or9sfQKk1s0oj7go1_r1_1280-1-500x500.jpg</t>
+  </si>
+  <si>
+    <t>tumblr_n1eki6jJi81s0oj7go1_r1_1280-1-500x500.jpg</t>
+  </si>
+  <si>
+    <t>tumblr_n17yb6TSKz1s0oj7go1_r1_1280-1-500x500.jpg</t>
+  </si>
+  <si>
+    <t>Drew Bledsoe Tom Brady (New England Patriots)</t>
+  </si>
+  <si>
+    <t>Drew Bledsoe Tom Brady (New England Patriots) patriots nfl football england new brady sport tom bowl</t>
+  </si>
+  <si>
+    <t>tumblr_n17x6h1yRX1s0oj7go1_r2_540-1-500x500.jpg</t>
+  </si>
+  <si>
+    <t>tumblr_n10gbtFWxw1s0oj7go1_r1_1280-1-500x500.jpg</t>
+  </si>
+  <si>
+    <t>tumblr_n0jq00tY7E1s0oj7go1_r1_1280-1-500x500.jpg</t>
+  </si>
+  <si>
+    <t>Chandler Jones New England Patriots</t>
+  </si>
+  <si>
+    <t>Chandler Jones New England Patriots patriots nfl football england new brady sport tom bowl</t>
+  </si>
+  <si>
+    <t>tumblr_mzq2n9JW4M1s0oj7go1_r1_1280-1-500x500.jpg</t>
+  </si>
+  <si>
+    <t>New England Patriots 2013 Retrospective</t>
+  </si>
+  <si>
+    <t>New England Patriots 2013 Retrospective patriots nfl football england new brady sport tom bowl</t>
+  </si>
+  <si>
+    <t>tumblr_mzgyjsuyYP1s0oj7go1_r1_1280-1-500x500.jpg</t>
+  </si>
+  <si>
+    <t>New England Patriots vs. Denver Broncos (2013 AFC Championship)</t>
+  </si>
+  <si>
+    <t>New England Patriots vs. Denver Broncos (2013 AFC Championship) patriots nfl football england new brady sport tom bowl</t>
+  </si>
+  <si>
+    <t>tumblr_mzf9d9D6wf1s0oj7go1_r1_1280-1-500x500.jpg</t>
+  </si>
+  <si>
+    <t>tumblr_mzf6z8BUTq1s0oj7go1_r1_1280-1-500x500.jpg</t>
+  </si>
+  <si>
+    <t>Aaron Dobson New England Patriots</t>
+  </si>
+  <si>
+    <t>Aaron Dobson New England Patriots patriots nfl football england new brady sport tom bowl</t>
+  </si>
+  <si>
+    <t>tumblr_mqjpvz4l531s0oj7go1_r1_1280-1-500x500.jpg</t>
+  </si>
+  <si>
+    <t>tumblr_mqe4gdy8CZ1s0oj7go1_r1_1280-1-500x500.jpg</t>
+  </si>
+  <si>
+    <t>tumblr_mp4j0sbN5P1s0oj7go1_r1_1280-1-500x500.jpg</t>
+  </si>
+  <si>
+    <t>tumblr_mlef6iEa5B1s0oj7go1_r1_1280-1-500x500.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bill Belichick Tom Brady </t>
+  </si>
+  <si>
+    <t>Bill Belichick Tom Brady  patriots nfl football england new brady sport tom bowl</t>
+  </si>
+  <si>
+    <t>tumblr_mkdlroPz3t1s0oj7go1_r1_1280-1-500x500.jpg</t>
+  </si>
+  <si>
+    <t>tumblr_mk9wn2YhiM1s0oj7go1_r1_1280-1-500x500.jpg</t>
+  </si>
+  <si>
+    <t>tumblr_mk83g7p9oC1s0oj7go1_r1_1280-1-500x500.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aaron Hernandez New England Patriots </t>
+  </si>
+  <si>
+    <t>Aaron Hernandez New England Patriots  patriots nfl football england new brady sport tom bowl</t>
+  </si>
+  <si>
+    <t>tumblr_mjnw1ayeD71s0oj7go1_r1_1280-1-500x500.jpg</t>
+  </si>
+  <si>
+    <t>Wes Welker New England Patriots</t>
+  </si>
+  <si>
+    <t>Wes Welker New England Patriots patriots nfl football england new brady sport tom bowl</t>
+  </si>
+  <si>
+    <t>tumblr_mjjv2yza7v1s0oj7go1_r1_1280-1-500x500.jpg</t>
+  </si>
+  <si>
+    <t>tumblr_mj9k3y3yLp1s0oj7go1_r1_1280-1-500x500.jpg</t>
+  </si>
+  <si>
+    <t>tumblr_mj6x1dTVOE1s0oj7go1_1280-1-500x500.jpg</t>
+  </si>
+  <si>
+    <t>Vince Wilfork New England Patriots</t>
+  </si>
+  <si>
+    <t>Vince Wilfork New England Patriots patriots nfl football england new brady sport tom bowl</t>
+  </si>
+  <si>
+    <t>tumblr_mj5bg0bIsw1s0oj7go1_r1_1280-1-500x500.jpg</t>
+  </si>
+  <si>
+    <t>tumblr_mj3n2t6nmz1s0oj7go1_r1_1280-1-500x500.jpg</t>
+  </si>
+  <si>
+    <t>tumblr_mj1tk2p9TJ1s0oj7go1_r1_1280-1-500x450.jpg</t>
+  </si>
+  <si>
+    <t>tumblr_nbsmui2Jg91s0oj7go1_640-1-500x500.jpg</t>
+  </si>
+  <si>
+    <t>GAME OF THRONES</t>
+  </si>
+  <si>
+    <t>TYRION LANNISTER GAME OF THRONES.jpg</t>
+  </si>
+  <si>
+    <t>TYRION LANNISTER GAME OF THRONES</t>
+  </si>
+  <si>
+    <t>19,29,38</t>
+  </si>
+  <si>
+    <t>TYRION LANNISTER GAME OF THRONES game thrones got stark lannister targaryen gameofthrones snow daenerys house</t>
+  </si>
+  <si>
+    <t>Dragon Tyrion Lannister.jpg</t>
+  </si>
+  <si>
+    <t>Dragon Tyrion Lannister</t>
+  </si>
+  <si>
+    <t>Dragon Tyrion Lannister game thrones got stark lannister targaryen gameofthrones snow daenerys house</t>
+  </si>
+  <si>
+    <t>Daenerys Targaryen.jpg</t>
+  </si>
+  <si>
+    <t>Daenerys Targaryen</t>
+  </si>
+  <si>
+    <t>Daenerys Targaryen game thrones got stark lannister targaryen gameofthrones snow daenerys house</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daenerys Targaryen on Drogon </t>
+  </si>
+  <si>
+    <t>Daenerys Targaryen on Drogon  game thrones got stark lannister targaryen gameofthrones snow daenerys house</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daenerys Targaryen White Walker </t>
+  </si>
+  <si>
+    <t>Daenerys Targaryen White Walker  game thrones got stark lannister targaryen gameofthrones snow daenerys house</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Daenerys Targaryen on Throne.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Daenerys Targaryen on Throne</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Daenerys Targaryen on Throne game thrones got stark lannister targaryen gameofthrones snow daenerys house</t>
+  </si>
+  <si>
+    <t>Jon Snow.jpg</t>
+  </si>
+  <si>
+    <t>Jon Snow</t>
+  </si>
+  <si>
+    <t>Jon Snow game thrones got stark lannister targaryen gameofthrones snow daenerys house</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Winter is Coming House Stark </t>
+  </si>
+  <si>
+    <t>Winter is Coming House Stark  game thrones got stark lannister targaryen gameofthrones snow daenerys house</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joffrey Baratheon GOT </t>
+  </si>
+  <si>
+    <t>Joffrey Baratheon GOT  game thrones got stark lannister targaryen gameofthrones snow daenerys house</t>
+  </si>
+  <si>
+    <t>Jaime Lannister GOT.jpg</t>
+  </si>
+  <si>
+    <t>Jaime Lannister GOT</t>
+  </si>
+  <si>
+    <t>Jaime Lannister GOT game thrones got stark lannister targaryen gameofthrones snow daenerys house</t>
+  </si>
+  <si>
+    <t>Petyr Baelish GOT.jpg</t>
+  </si>
+  <si>
+    <t>Petyr Baelish GOT</t>
+  </si>
+  <si>
+    <t>Petyr Baelish GOT game thrones got stark lannister targaryen gameofthrones snow daenerys house</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Game of Thrones Jon Snow </t>
+  </si>
+  <si>
+    <t>Game of Thrones Jon Snow  game thrones got stark lannister targaryen gameofthrones snow daenerys house</t>
+  </si>
+  <si>
+    <t>Hot Daenerys Targaryen.jpg</t>
+  </si>
+  <si>
+    <t>Hot Daenerys Targaryen</t>
+  </si>
+  <si>
+    <t>Hot Daenerys Targaryen game thrones got stark lannister targaryen gameofthrones snow daenerys house</t>
+  </si>
+  <si>
+    <t>Cersei Lannister GOT.jpg</t>
+  </si>
+  <si>
+    <t>Cersei Lannister GOT</t>
+  </si>
+  <si>
+    <t>Cersei Lannister GOT game thrones got stark lannister targaryen gameofthrones snow daenerys house</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Game Of Thrones Dragons Daenerys </t>
+  </si>
+  <si>
+    <t>Game Of Thrones Dragons Daenerys  game thrones got stark lannister targaryen gameofthrones snow daenerys house</t>
+  </si>
+  <si>
+    <t>Daenerys Targaryen Horse.jpg</t>
+  </si>
+  <si>
+    <t>Daenerys Targaryen Horse</t>
+  </si>
+  <si>
+    <t>Daenerys Targaryen Horse game thrones got stark lannister targaryen gameofthrones snow daenerys house</t>
+  </si>
+  <si>
+    <t>Jaime Lannister.jpg</t>
+  </si>
+  <si>
+    <t>Jaime Lannister</t>
+  </si>
+  <si>
+    <t>Jaime Lannister game thrones got stark lannister targaryen gameofthrones snow daenerys house</t>
+  </si>
+  <si>
+    <t>Daenerys Targaryen Dragon.jpg</t>
+  </si>
+  <si>
+    <t>Daenerys Targaryen Dragon</t>
+  </si>
+  <si>
+    <t>Daenerys Targaryen Dragon game thrones got stark lannister targaryen gameofthrones snow daenerys house</t>
+  </si>
+  <si>
+    <t>Daenerys Targaryen Dragon  GOT.jpg</t>
+  </si>
+  <si>
+    <t>Daenerys Targaryen Dragon  GOT</t>
+  </si>
+  <si>
+    <t>Daenerys Targaryen Dragon  GOT game thrones got stark lannister targaryen gameofthrones snow daenerys house</t>
+  </si>
+  <si>
+    <t>Sandor Clegane GOT.jpg</t>
+  </si>
+  <si>
+    <t>Sandor Clegane GOT</t>
+  </si>
+  <si>
+    <t>Sandor Clegane GOT game thrones got stark lannister targaryen gameofthrones snow daenerys house</t>
+  </si>
+  <si>
+    <t>Jon Snow Game of Thrones Season.jpg</t>
+  </si>
+  <si>
+    <t>Jon Snow Game of Thrones Season</t>
+  </si>
+  <si>
+    <t>Jon Snow Game of Thrones Season game thrones got stark lannister targaryen gameofthrones snow daenerys house</t>
+  </si>
+  <si>
+    <t>Game Of Thrones Dragon Daenerys.jpg</t>
+  </si>
+  <si>
+    <t>Game Of Thrones Dragon Daenerys</t>
+  </si>
+  <si>
+    <t>Game Of Thrones Dragon Daenerys game thrones got stark lannister targaryen gameofthrones snow daenerys house</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sansa Stark </t>
+  </si>
+  <si>
+    <t>Sansa Stark  game thrones got stark lannister targaryen gameofthrones snow daenerys house</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Game Of Thrones Characters </t>
+  </si>
+  <si>
+    <t>Game Of Thrones Characters  game thrones got stark lannister targaryen gameofthrones snow daenerys house</t>
+  </si>
+  <si>
+    <t>Game of Thrones Season 8 2019.jpg</t>
+  </si>
+  <si>
+    <t>Game of Thrones Season 8 2019</t>
+  </si>
+  <si>
+    <t>Game of Thrones Season 8 2019 game thrones got stark lannister targaryen gameofthrones snow daenerys house</t>
+  </si>
+  <si>
+    <t>Game Of Thrones Houses.jpg</t>
+  </si>
+  <si>
+    <t>Game Of Thrones Houses</t>
+  </si>
+  <si>
+    <t>Game Of Thrones Houses game thrones got stark lannister targaryen gameofthrones snow daenerys house</t>
+  </si>
+  <si>
+    <t>You Win or You Die When You Play the Game of Thrones.jpg</t>
+  </si>
+  <si>
+    <t>You Win or You Die When You Play the Game of Thrones</t>
+  </si>
+  <si>
+    <t>You Win or You Die When You Play the Game of Thrones game thrones got stark lannister targaryen gameofthrones snow daenerys house</t>
+  </si>
+  <si>
+    <t>Daenerys Targaryen GOT.jpg</t>
+  </si>
+  <si>
+    <t>Daenerys Targaryen GOT</t>
+  </si>
+  <si>
+    <t>Daenerys Targaryen GOT game thrones got stark lannister targaryen gameofthrones snow daenerys house</t>
+  </si>
+  <si>
+    <t>Davos Seaworth GOT.jpg</t>
+  </si>
+  <si>
+    <t>Davos Seaworth GOT</t>
+  </si>
+  <si>
+    <t>Davos Seaworth GOT game thrones got stark lannister targaryen gameofthrones snow daenerys house</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khal Drogo GOT </t>
+  </si>
+  <si>
+    <t>Khal Drogo GOT  game thrones got stark lannister targaryen gameofthrones snow daenerys house</t>
+  </si>
+  <si>
+    <t>Robert Baratheon GOT.jpg</t>
+  </si>
+  <si>
+    <t>Robert Baratheon GOT</t>
+  </si>
+  <si>
+    <t>Robert Baratheon GOT game thrones got stark lannister targaryen gameofthrones snow daenerys house</t>
+  </si>
+  <si>
+    <t>Bronn Jaime Lannister.jpg</t>
+  </si>
+  <si>
+    <t>Bronn Jaime Lannister</t>
+  </si>
+  <si>
+    <t>Bronn Jaime Lannister game thrones got stark lannister targaryen gameofthrones snow daenerys house</t>
+  </si>
+  <si>
+    <t>Tormund Giantsbane Theon Greyjoy Brienne of Tarth.jpg</t>
+  </si>
+  <si>
+    <t>Tormund Giantsbane Theon Greyjoy Brienne of Tarth</t>
+  </si>
+  <si>
+    <t>Tormund Giantsbane Theon Greyjoy Brienne of Tarth game thrones got stark lannister targaryen gameofthrones snow daenerys house</t>
+  </si>
+  <si>
+    <t>Sansa Arya Stark Petyr Baelish.jpg</t>
+  </si>
+  <si>
+    <t>Sansa Arya Stark Petyr Baelish</t>
+  </si>
+  <si>
+    <t>Sansa Arya Stark Petyr Baelish game thrones got stark lannister targaryen gameofthrones snow daenerys house</t>
+  </si>
+  <si>
+    <t xml:space="preserve">on Snow Daenerys Targaryen Bran Stark </t>
+  </si>
+  <si>
+    <t>on Snow Daenerys Targaryen Bran Stark  game thrones got stark lannister targaryen gameofthrones snow daenerys house</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Game Of Thrones Houses Logo </t>
+  </si>
+  <si>
+    <t>Game Of Thrones Houses Logo  game thrones got stark lannister targaryen gameofthrones snow daenerys house</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Game of Thrones Wolf and Crow </t>
+  </si>
+  <si>
+    <t>Game of Thrones Wolf and Crow  game thrones got stark lannister targaryen gameofthrones snow daenerys house</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arya Stark GOT </t>
+  </si>
+  <si>
+    <t>Arya Stark GOT  game thrones got stark lannister targaryen gameofthrones snow daenerys house</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robb Stark GOT </t>
+  </si>
+  <si>
+    <t>Robb Stark GOT  game thrones got stark lannister targaryen gameofthrones snow daenerys house</t>
+  </si>
+  <si>
+    <t>The Mother of Dragons Daenerys Targaryen.jpg</t>
+  </si>
+  <si>
+    <t>The Mother of Dragons Daenerys Targaryen</t>
+  </si>
+  <si>
+    <t>The Mother of Dragons Daenerys Targaryen game thrones got stark lannister targaryen gameofthrones snow daenerys house</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bran Stark GOT </t>
+  </si>
+  <si>
+    <t>Bran Stark GOT  game thrones got stark lannister targaryen gameofthrones snow daenerys house</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daenerys Targaryen - Quotes If I Look Back I'm Lost </t>
+  </si>
+  <si>
+    <t>Daenerys Targaryen - Quotes If I Look Back I'm Lost  game thrones got stark lannister targaryen gameofthrones snow daenerys house</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daenerys Targaryen Quotes </t>
+  </si>
+  <si>
+    <t>Daenerys Targaryen Quotes  game thrones got stark lannister targaryen gameofthrones snow daenerys house</t>
+  </si>
+  <si>
+    <t>Melisandre GOT.jpg</t>
+  </si>
+  <si>
+    <t>Melisandre GOT</t>
+  </si>
+  <si>
+    <t>Melisandre GOT game thrones got stark lannister targaryen gameofthrones snow daenerys house</t>
+  </si>
+  <si>
+    <t>Jon Snow GOT -Quotes I Know You Love Me.jpg</t>
+  </si>
+  <si>
+    <t>Jon Snow GOT -Quotes I Know You Love Me</t>
+  </si>
+  <si>
+    <t>Jon Snow GOT -Quotes I Know You Love Me game thrones got stark lannister targaryen gameofthrones snow daenerys house</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rodrik Cassel GOT </t>
+  </si>
+  <si>
+    <t>Rodrik Cassel GOT  game thrones got stark lannister targaryen gameofthrones snow daenerys house</t>
+  </si>
+  <si>
+    <t>Sansa Stark GOT.jpg</t>
+  </si>
+  <si>
+    <t>Sansa Stark GOT</t>
+  </si>
+  <si>
+    <t>Sansa Stark GOT game thrones got stark lannister targaryen gameofthrones snow daenerys house</t>
+  </si>
+  <si>
+    <t>Sandor Clegane GOT - Joy To Kill People.jpg</t>
+  </si>
+  <si>
+    <t>Sandor Clegane GOT - Joy To Kill People</t>
+  </si>
+  <si>
+    <t>Sandor Clegane GOT - Joy To Kill People game thrones got stark lannister targaryen gameofthrones snow daenerys house</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viserys Targaryen GOT </t>
+  </si>
+  <si>
+    <t>Viserys Targaryen GOT  game thrones got stark lannister targaryen gameofthrones snow daenerys house</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tyrion Lannister GOT  - Deny A Hard Truth </t>
+  </si>
+  <si>
+    <t>Tyrion Lannister GOT  - Deny A Hard Truth  game thrones got stark lannister targaryen gameofthrones snow daenerys house</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Game of Thrones Season </t>
+  </si>
+  <si>
+    <t>Game of Thrones Season  game thrones got stark lannister targaryen gameofthrones snow daenerys house</t>
+  </si>
+  <si>
+    <t>Game of Thrones Biggest Fire the North Has Ever Seen.jpg</t>
+  </si>
+  <si>
+    <t>Game of Thrones Biggest Fire the North Has Ever Seen</t>
+  </si>
+  <si>
+    <t>Game of Thrones Biggest Fire the North Has Ever Seen game thrones got stark lannister targaryen gameofthrones snow daenerys house</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tyrion Lannister </t>
+  </si>
+  <si>
+    <t>Tyrion Lannister  game thrones got stark lannister targaryen gameofthrones snow daenerys house</t>
+  </si>
+  <si>
+    <t>Missandei Fan Art.jpg</t>
+  </si>
+  <si>
+    <t>Missandei Fan Art</t>
+  </si>
+  <si>
+    <t>Missandei Fan Art game thrones got stark lannister targaryen gameofthrones snow daenerys house</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Game of Thrones GoT Map Houses </t>
+  </si>
+  <si>
+    <t>Game of Thrones GoT Map Houses  game thrones got stark lannister targaryen gameofthrones snow daenerys house</t>
+  </si>
+  <si>
+    <t>Arya Stark - Fear Cuts Deeper Than Swords.jpg</t>
+  </si>
+  <si>
+    <t>Arya Stark - Fear Cuts Deeper Than Swords</t>
+  </si>
+  <si>
+    <t>Arya Stark - Fear Cuts Deeper Than Swords game thrones got stark lannister targaryen gameofthrones snow daenerys house</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tywin Lannister GOT </t>
+  </si>
+  <si>
+    <t>Tywin Lannister GOT  game thrones got stark lannister targaryen gameofthrones snow daenerys house</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Winter is Here </t>
+  </si>
+  <si>
+    <t>Winter is Here  game thrones got stark lannister targaryen gameofthrones snow daenerys house</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Game Of Thrones Art </t>
+  </si>
+  <si>
+    <t>Game Of Thrones Art  game thrones got stark lannister targaryen gameofthrones snow daenerys house</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jon Snow Blood </t>
+  </si>
+  <si>
+    <t>Jon Snow Blood  game thrones got stark lannister targaryen gameofthrones snow daenerys house</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bran Stark Iron Throne </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bran Stark Iron Throne  game thrones got stark lannister targaryen gameofthrones snow daenerys house</t>
+  </si>
+  <si>
+    <t>Jorah Mormont Iron Throne.jpg</t>
+  </si>
+  <si>
+    <t>Jorah Mormont Iron Throne</t>
+  </si>
+  <si>
+    <t>Jorah Mormont Iron Throne game thrones got stark lannister targaryen gameofthrones snow daenerys house</t>
+  </si>
+  <si>
+    <t>Euron Greyjoy Iron Throne.jpg</t>
+  </si>
+  <si>
+    <t>Euron Greyjoy Iron Throne</t>
+  </si>
+  <si>
+    <t>Euron Greyjoy Iron Throne game thrones got stark lannister targaryen gameofthrones snow daenerys house</t>
+  </si>
+  <si>
+    <t>Jon Snow Iron Throne.jpg</t>
+  </si>
+  <si>
+    <t>Jon Snow Iron Throne</t>
+  </si>
+  <si>
+    <t>Jon Snow Iron Throne game thrones got stark lannister targaryen gameofthrones snow daenerys house</t>
+  </si>
+  <si>
+    <t>Laminated Game of Thrones.jpg</t>
+  </si>
+  <si>
+    <t>Laminated Game of Thrones</t>
+  </si>
+  <si>
+    <t>Laminated Game of Thrones game thrones got stark lannister targaryen gameofthrones snow daenerys house</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Night King Iron Throne </t>
+  </si>
+  <si>
+    <t>Night King Iron Throne  game thrones got stark lannister targaryen gameofthrones snow daenerys house</t>
+  </si>
+  <si>
+    <t>Daenerys Iron Throne.jpg</t>
+  </si>
+  <si>
+    <t>Daenerys Iron Throne</t>
+  </si>
+  <si>
+    <t>Daenerys Iron Throne game thrones got stark lannister targaryen gameofthrones snow daenerys house</t>
+  </si>
+  <si>
+    <t>Missandei Iron Throne.jpg</t>
+  </si>
+  <si>
+    <t>Missandei Iron Throne</t>
+  </si>
+  <si>
+    <t>Missandei Iron Throne game thrones got stark lannister targaryen gameofthrones snow daenerys house</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Game Of Thrones Antique Map </t>
+  </si>
+  <si>
+    <t>Game Of Thrones Antique Map  game thrones got stark lannister targaryen gameofthrones snow daenerys house</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Five Kings One Throne </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Five Kings One Throne  game thrones got stark lannister targaryen gameofthrones snow daenerys house</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Game of Thrones Logo </t>
+  </si>
+  <si>
+    <t>Game of Thrones Logo  game thrones got stark lannister targaryen gameofthrones snow daenerys house</t>
+  </si>
+  <si>
+    <t>Game of Thrones Iron Throne Fire and Blood.jpg</t>
+  </si>
+  <si>
+    <t>Game of Thrones Iron Throne Fire and Blood</t>
+  </si>
+  <si>
+    <t>Game of Thrones Iron Throne Fire and Blood game thrones got stark lannister targaryen gameofthrones snow daenerys house</t>
+  </si>
+  <si>
+    <t>Daenerys Targaryen on Drogon.jpg</t>
+  </si>
+  <si>
+    <t>Daenerys Targaryen White Walker.jpg</t>
+  </si>
+  <si>
+    <t>Winter is Coming House Stark.jpg</t>
+  </si>
+  <si>
+    <t>Joffrey Baratheon GOT.jpg</t>
+  </si>
+  <si>
+    <t>Game of Thrones Jon Snow.jpg</t>
+  </si>
+  <si>
+    <t>Game Of Thrones Dragons Daenerys.jpg</t>
+  </si>
+  <si>
+    <t>Sansa Stark.jpg</t>
+  </si>
+  <si>
+    <t>Game Of Thrones Characters.jpg</t>
+  </si>
+  <si>
+    <t>Khal Drogo GOT.jpg</t>
+  </si>
+  <si>
+    <t>on Snow Daenerys Targaryen Bran Stark.jpg</t>
+  </si>
+  <si>
+    <t>Game Of Thrones Houses Logo.jpg</t>
+  </si>
+  <si>
+    <t>Game of Thrones Wolf and Crow.jpg</t>
+  </si>
+  <si>
+    <t>Arya Stark GOT.jpg</t>
+  </si>
+  <si>
+    <t>Robb Stark GOT.jpg</t>
+  </si>
+  <si>
+    <t>Bran Stark GOT.jpg</t>
+  </si>
+  <si>
+    <t>Daenerys Targaryen - Quotes If I Look Back I'm Lost.jpg</t>
+  </si>
+  <si>
+    <t>Daenerys Targaryen Quotes.jpg</t>
+  </si>
+  <si>
+    <t>Rodrik Cassel GOT.jpg</t>
+  </si>
+  <si>
+    <t>Viserys Targaryen GOT.jpg</t>
+  </si>
+  <si>
+    <t>Tyrion Lannister GOT  - Deny A Hard Truth.jpg</t>
+  </si>
+  <si>
+    <t>Game of Thrones Season.jpg</t>
+  </si>
+  <si>
+    <t>Tyrion Lannister.jpg</t>
+  </si>
+  <si>
+    <t>Game of Thrones GoT Map Houses.jpg</t>
+  </si>
+  <si>
+    <t>Tywin Lannister GOT.jpg</t>
+  </si>
+  <si>
+    <t>Winter is Here.jpg</t>
+  </si>
+  <si>
+    <t>Game Of Thrones Art.jpg</t>
+  </si>
+  <si>
+    <t>Jon Snow Blood.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bran Stark Iron Throne.jpg</t>
+  </si>
+  <si>
+    <t>Night King Iron Throne.jpg</t>
+  </si>
+  <si>
+    <t>Game Of Thrones Antique Map.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Five Kings One Throne.jpg</t>
+  </si>
+  <si>
+    <t>Game of Thrones Logo.jpg</t>
+  </si>
+  <si>
+    <t>tumblr_piay1cuTVa1s0oj7go1_1280-1.jpg</t>
+  </si>
+  <si>
+    <t>tumblr_phy33aRffB1s0oj7go1_1280-1.jpg</t>
+  </si>
+  <si>
+    <t>tumblr_ph435vfmIe1s0oj7go1_1280-1.jpg</t>
+  </si>
+  <si>
+    <t>tumblr_pgticsERIW1s0oj7go1_1280-1.jpg</t>
+  </si>
+  <si>
+    <t>tumblr_pfoqjrl7QL1s0oj7go1_1280-1.jpg</t>
+  </si>
+  <si>
+    <t>tumblr_pf2evvIUDN1s0oj7go1_1280-1.jpg</t>
+  </si>
+  <si>
+    <t>tumblr_peyl50qeOG1s0oj7go1_1280-1.jpg</t>
+  </si>
+  <si>
+    <t>tumblr_peslfcj97P1s0oj7go1_1280-1.jpg</t>
+  </si>
+  <si>
+    <t>tumblr_pec3z6KbAM1s0oj7go1_r1_1280-1.jpg</t>
+  </si>
+  <si>
+    <t>tumblr_pdql9wpGtJ1s0oj7go1_1280-1.jpg</t>
+  </si>
+  <si>
+    <t>tumblr_pdm72sP2r81s0oj7go1_1280-1.jpg</t>
+  </si>
+  <si>
+    <t>tumblr_pdm4dgpcrf1s0oj7go1_1280-1.jpg</t>
+  </si>
+  <si>
+    <t>tumblr_pdihe5ftWt1s0oj7go1_1280-1.jpg</t>
+  </si>
+  <si>
+    <t>tumblr_pd98p5PSEi1s0oj7go1_1280-1.jpg</t>
+  </si>
+  <si>
+    <t>tumblr_pd7hldqLB91s0oj7go1_1280-1.jpg</t>
+  </si>
+  <si>
+    <t>tumblr_pcw9ypdlLV1s0oj7go1_1280-1.jpg</t>
+  </si>
+  <si>
+    <t>tumblr_pc6d7buPfI1s0oj7go1_1280-1.jpg</t>
+  </si>
+  <si>
+    <t>tumblr_p8h0592IyU1s0oj7go1_1280-1.jpg</t>
+  </si>
+  <si>
+    <t>tumblr_p89f4wF8NO1s0oj7go1_1280-1.jpg</t>
+  </si>
+  <si>
+    <t>tumblr_p84gr0MVAJ1s0oj7go1_1280-1.jpg</t>
+  </si>
+  <si>
+    <t>tumblr_p7utdyaMDu1s0oj7go1_1280-1.jpg</t>
+  </si>
+  <si>
+    <t>tumblr_p7rep2tWoB1s0oj7go1_1280-1.jpg</t>
+  </si>
+  <si>
+    <t>tumblr_p7huziGVX61s0oj7go1_1280-1.jpg</t>
+  </si>
+  <si>
+    <t>tumblr_p74vwfVzKh1s0oj7go1_1280-1.jpg</t>
+  </si>
+  <si>
+    <t>tumblr_p69pbjyEbK1s0oj7go1_1280-1.jpg</t>
+  </si>
+  <si>
+    <t>tumblr_p67js6TzGx1s0oj7go1_1280-1.jpg</t>
+  </si>
+  <si>
+    <t>tumblr_p622noZP3M1s0oj7go1_1280-1.jpg</t>
+  </si>
+  <si>
+    <t>tumblr_p5i71lT1y21s0oj7go1_1280-1.jpg</t>
+  </si>
+  <si>
+    <t>tumblr_p444xbljV41s0oj7go1_1280-1.jpg</t>
+  </si>
+  <si>
+    <t>tom brady new england patriots-10</t>
+  </si>
+  <si>
+    <t>tom brady new england patriots-10 patriots nfl england new brady dallas cowboys broncos tom</t>
+  </si>
+  <si>
+    <t>tumblr_p444uwe5Z01s0oj7go1_1280-1.jpg</t>
+  </si>
+  <si>
+    <t>tumblr_owaoqoQLCZ1s0oj7go1_1280-1.jpg</t>
+  </si>
+  <si>
+    <t>tumblr_ovpftaI9Qm1s0oj7go1_1280-1.jpg</t>
+  </si>
+  <si>
+    <t>tom brady new england patriots-11</t>
+  </si>
+  <si>
+    <t>tom brady new england patriots-11 patriots nfl england new brady dallas cowboys broncos tom</t>
+  </si>
+  <si>
+    <t>tumblr_ousxczfICz1s0oj7go1_1280-1.jpg</t>
+  </si>
+  <si>
+    <t>tumblr_ou31bxapwd1s0oj7go1_1280-1.jpg</t>
+  </si>
+  <si>
+    <t>tumblr_oraxvq0SF31s0oj7go1_1280-1.jpg</t>
+  </si>
+  <si>
+    <t>tom brady new england patriots-12</t>
+  </si>
+  <si>
+    <t>tom brady new england patriots-12 patriots nfl england new brady dallas cowboys broncos tom</t>
+  </si>
+  <si>
+    <t>tumblr_ojn4bafY8k1s0oj7go1_1280-1.jpg</t>
+  </si>
+  <si>
+    <t>tumblr_ojn49xloMu1s0oj7go1_1280-1.jpg</t>
+  </si>
+  <si>
+    <t>tumblr_pc6d2w7VOd1s0oj7go1_1280-1.jpg</t>
+  </si>
+  <si>
+    <t>tumblr_pc6d5uWZXD1s0oj7go1_r1_1280-1.jpg</t>
+  </si>
+  <si>
+    <t>tumblr_pc2ngy4ae01s0oj7go1_1280-1.jpg</t>
+  </si>
+  <si>
+    <t>tumblr_pbtdyl5dZw1s0oj7go1_1280-1.jpg</t>
+  </si>
+  <si>
+    <t>tumblr_pbnyt1gQ1l1s0oj7go1_1280-1.jpg</t>
+  </si>
+  <si>
+    <t>tumblr_pb9nq9wAY61s0oj7go1_1280-1.jpg</t>
+  </si>
+  <si>
+    <t>tumblr_pb01bfMmWC1s0oj7go1_r2_1280-1.jpg</t>
+  </si>
+  <si>
+    <t>tumblr_pb0180xxVe1s0oj7go1_1280-1.jpg</t>
+  </si>
+  <si>
+    <t>tumblr_paow68VFQB1s0oj7go1_1280-1.jpg</t>
+  </si>
+  <si>
+    <t>tumblr_patxvkAdaL1s0oj7go1_1280-1.jpg</t>
+  </si>
+  <si>
+    <t>tumblr_pajcmhNlKK1s0oj7go1_1280-1.jpg</t>
+  </si>
+  <si>
+    <t>tumblr_pa9t4nSRpE1s0oj7go1_1280-1.jpg</t>
+  </si>
+  <si>
+    <t>tumblr_pa3yjwSzBK1s0oj7go1_1280-1.jpg</t>
+  </si>
+  <si>
+    <t>tumblr_p9nmzfqwsZ1s0oj7go1_r1_1280-1.jpg</t>
+  </si>
+  <si>
+    <t>tumblr_p9nmxyr75a1s0oj7go1_1280-1.jpg</t>
+  </si>
+  <si>
+    <t>tumblr_p9i121qvnj1s0oj7go1_1280-1.jpg</t>
+  </si>
+  <si>
+    <t>tumblr_p9ao48wJmB1s0oj7go1_1280-1.jpg</t>
+  </si>
+  <si>
+    <t>tumblr_p8xyzzGdXl1s0oj7go1_1280-1.jpg</t>
+  </si>
+  <si>
+    <t>tumblr_p8ugv5qrPa1s0oj7go1_1280-1.jpg</t>
+  </si>
+  <si>
+    <t>tumblr_p8kp3q8O6m1s0oj7go1_1280-1.jpg</t>
+  </si>
+  <si>
+    <t>New England Patriots 20 St. Lous Rams-17 (Super Bowl XXXVI)</t>
+  </si>
+  <si>
+    <t>New England Patriots 20 St. Lous Rams-17 (Super Bowl XXXVI) patriots nfl football england new brady sport tom bowl</t>
   </si>
 </sst>
 </file>
@@ -694,14 +2401,14 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1024,100 +2731,5872 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H225"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.875" customWidth="1"/>
-    <col min="2" max="2" width="15.625" customWidth="1"/>
-    <col min="3" max="3" width="21.125" customWidth="1"/>
-    <col min="4" max="4" width="25.375" customWidth="1"/>
-    <col min="5" max="5" width="51.875" customWidth="1"/>
-    <col min="6" max="6" width="9.25" style="3" customWidth="1"/>
-    <col min="7" max="7" width="15.75" style="3" customWidth="1"/>
-    <col min="8" max="8" width="68.375" customWidth="1"/>
+    <col min="1" max="1" width="31.7109375" customWidth="1"/>
+    <col min="2" max="2" width="51.5703125" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" customWidth="1"/>
+    <col min="4" max="4" width="25.42578125" customWidth="1"/>
+    <col min="5" max="5" width="51.85546875" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="68.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C1" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="E1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>41</v>
       </c>
       <c r="H1" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>45</v>
+        <v>565</v>
+      </c>
+      <c r="C2" t="s">
+        <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" s="3">
-        <v>2</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>51</v>
+        <v>54</v>
+      </c>
+      <c r="F2" s="2">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>53</v>
       </c>
       <c r="H2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>566</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" s="3">
-        <v>2</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>52</v>
+        <v>56</v>
+      </c>
+      <c r="F3" s="2">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>53</v>
       </c>
       <c r="H3" t="s">
-        <v>53</v>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" t="s">
+        <v>567</v>
+      </c>
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="2">
+        <v>4</v>
+      </c>
+      <c r="G4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" t="s">
+        <v>568</v>
+      </c>
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="2">
+        <v>4</v>
+      </c>
+      <c r="G5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" t="s">
+        <v>569</v>
+      </c>
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="2">
+        <v>4</v>
+      </c>
+      <c r="G6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" t="s">
+        <v>570</v>
+      </c>
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="2">
+        <v>4</v>
+      </c>
+      <c r="G7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" t="s">
+        <v>571</v>
+      </c>
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="2">
+        <v>4</v>
+      </c>
+      <c r="G8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" t="s">
+        <v>572</v>
+      </c>
+      <c r="C9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="2">
+        <v>4</v>
+      </c>
+      <c r="G9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" t="s">
+        <v>573</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="2">
+        <v>4</v>
+      </c>
+      <c r="G10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" t="s">
+        <v>574</v>
+      </c>
+      <c r="C11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="2">
+        <v>4</v>
+      </c>
+      <c r="G11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" t="s">
+        <v>575</v>
+      </c>
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" s="2">
+        <v>4</v>
+      </c>
+      <c r="G12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" t="s">
+        <v>576</v>
+      </c>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" s="2">
+        <v>4</v>
+      </c>
+      <c r="G13" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" t="s">
+        <v>577</v>
+      </c>
+      <c r="C14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="2">
+        <v>4</v>
+      </c>
+      <c r="G14" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" t="s">
+        <v>578</v>
+      </c>
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" s="2">
+        <v>4</v>
+      </c>
+      <c r="G15" t="s">
+        <v>53</v>
+      </c>
+      <c r="H15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" t="s">
+        <v>579</v>
+      </c>
+      <c r="C16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" t="s">
+        <v>82</v>
+      </c>
+      <c r="F16" s="2">
+        <v>4</v>
+      </c>
+      <c r="G16" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" t="s">
+        <v>580</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" s="2">
+        <v>4</v>
+      </c>
+      <c r="G17" t="s">
+        <v>53</v>
+      </c>
+      <c r="H17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" t="s">
+        <v>581</v>
+      </c>
+      <c r="C18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" t="s">
+        <v>86</v>
+      </c>
+      <c r="E18" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" s="2">
+        <v>4</v>
+      </c>
+      <c r="G18" t="s">
+        <v>53</v>
+      </c>
+      <c r="H18" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" t="s">
+        <v>582</v>
+      </c>
+      <c r="C19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" t="s">
+        <v>88</v>
+      </c>
+      <c r="E19" t="s">
+        <v>88</v>
+      </c>
+      <c r="F19" s="2">
+        <v>4</v>
+      </c>
+      <c r="G19" t="s">
+        <v>53</v>
+      </c>
+      <c r="H19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" t="s">
+        <v>583</v>
+      </c>
+      <c r="C20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" t="s">
+        <v>90</v>
+      </c>
+      <c r="F20" s="2">
+        <v>4</v>
+      </c>
+      <c r="G20" t="s">
+        <v>53</v>
+      </c>
+      <c r="H20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" t="s">
+        <v>584</v>
+      </c>
+      <c r="C21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E21" t="s">
+        <v>92</v>
+      </c>
+      <c r="F21" s="2">
+        <v>4</v>
+      </c>
+      <c r="G21" t="s">
+        <v>53</v>
+      </c>
+      <c r="H21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" t="s">
+        <v>585</v>
+      </c>
+      <c r="C22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" t="s">
+        <v>94</v>
+      </c>
+      <c r="E22" t="s">
+        <v>94</v>
+      </c>
+      <c r="F22" s="2">
+        <v>4</v>
+      </c>
+      <c r="G22" t="s">
+        <v>53</v>
+      </c>
+      <c r="H22" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" t="s">
+        <v>586</v>
+      </c>
+      <c r="C23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E23" t="s">
+        <v>96</v>
+      </c>
+      <c r="F23" s="2">
+        <v>4</v>
+      </c>
+      <c r="G23" t="s">
+        <v>53</v>
+      </c>
+      <c r="H23" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" t="s">
+        <v>587</v>
+      </c>
+      <c r="C24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" t="s">
+        <v>98</v>
+      </c>
+      <c r="E24" t="s">
+        <v>98</v>
+      </c>
+      <c r="F24" s="2">
+        <v>4</v>
+      </c>
+      <c r="G24" t="s">
+        <v>53</v>
+      </c>
+      <c r="H24" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" t="s">
+        <v>588</v>
+      </c>
+      <c r="C25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" t="s">
+        <v>100</v>
+      </c>
+      <c r="E25" t="s">
+        <v>100</v>
+      </c>
+      <c r="F25" s="2">
+        <v>4</v>
+      </c>
+      <c r="G25" t="s">
+        <v>53</v>
+      </c>
+      <c r="H25" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" t="s">
+        <v>589</v>
+      </c>
+      <c r="C26" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" t="s">
+        <v>102</v>
+      </c>
+      <c r="E26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F26" s="2">
+        <v>4</v>
+      </c>
+      <c r="G26" t="s">
+        <v>53</v>
+      </c>
+      <c r="H26" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" t="s">
+        <v>590</v>
+      </c>
+      <c r="C27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" t="s">
+        <v>104</v>
+      </c>
+      <c r="E27" t="s">
+        <v>104</v>
+      </c>
+      <c r="F27" s="2">
+        <v>4</v>
+      </c>
+      <c r="G27" t="s">
+        <v>53</v>
+      </c>
+      <c r="H27" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" t="s">
+        <v>591</v>
+      </c>
+      <c r="C28" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" t="s">
+        <v>106</v>
+      </c>
+      <c r="E28" t="s">
+        <v>106</v>
+      </c>
+      <c r="F28" s="2">
+        <v>4</v>
+      </c>
+      <c r="G28" t="s">
+        <v>53</v>
+      </c>
+      <c r="H28" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" t="s">
+        <v>592</v>
+      </c>
+      <c r="C29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" t="s">
+        <v>108</v>
+      </c>
+      <c r="E29" t="s">
+        <v>108</v>
+      </c>
+      <c r="F29" s="2">
+        <v>4</v>
+      </c>
+      <c r="G29" t="s">
+        <v>53</v>
+      </c>
+      <c r="H29" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" t="s">
+        <v>593</v>
+      </c>
+      <c r="C30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" t="s">
+        <v>594</v>
+      </c>
+      <c r="E30" t="s">
+        <v>594</v>
+      </c>
+      <c r="F30" s="2">
+        <v>4</v>
+      </c>
+      <c r="G30" t="s">
+        <v>53</v>
+      </c>
+      <c r="H30" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" t="s">
+        <v>596</v>
+      </c>
+      <c r="C31" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" t="s">
+        <v>110</v>
+      </c>
+      <c r="E31" t="s">
+        <v>110</v>
+      </c>
+      <c r="F31" s="2">
+        <v>4</v>
+      </c>
+      <c r="G31" t="s">
+        <v>53</v>
+      </c>
+      <c r="H31" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" t="s">
+        <v>597</v>
+      </c>
+      <c r="C32" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" t="s">
+        <v>112</v>
+      </c>
+      <c r="E32" t="s">
+        <v>112</v>
+      </c>
+      <c r="F32" s="2">
+        <v>4</v>
+      </c>
+      <c r="G32" t="s">
+        <v>53</v>
+      </c>
+      <c r="H32" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" t="s">
+        <v>598</v>
+      </c>
+      <c r="C33" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" t="s">
+        <v>599</v>
+      </c>
+      <c r="E33" t="s">
+        <v>599</v>
+      </c>
+      <c r="F33" s="2">
+        <v>4</v>
+      </c>
+      <c r="G33" t="s">
+        <v>53</v>
+      </c>
+      <c r="H33" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" t="s">
+        <v>601</v>
+      </c>
+      <c r="C34" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" t="s">
+        <v>114</v>
+      </c>
+      <c r="E34" t="s">
+        <v>114</v>
+      </c>
+      <c r="F34" s="2">
+        <v>4</v>
+      </c>
+      <c r="G34" t="s">
+        <v>53</v>
+      </c>
+      <c r="H34" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" t="s">
+        <v>602</v>
+      </c>
+      <c r="C35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" t="s">
+        <v>116</v>
+      </c>
+      <c r="E35" t="s">
+        <v>116</v>
+      </c>
+      <c r="F35" s="2">
+        <v>4</v>
+      </c>
+      <c r="G35" t="s">
+        <v>53</v>
+      </c>
+      <c r="H35" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" t="s">
+        <v>603</v>
+      </c>
+      <c r="C36" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" t="s">
+        <v>604</v>
+      </c>
+      <c r="E36" t="s">
+        <v>604</v>
+      </c>
+      <c r="F36" s="2">
+        <v>4</v>
+      </c>
+      <c r="G36" t="s">
+        <v>53</v>
+      </c>
+      <c r="H36" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" t="s">
+        <v>606</v>
+      </c>
+      <c r="C37" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37" t="s">
+        <v>118</v>
+      </c>
+      <c r="E37" t="s">
+        <v>118</v>
+      </c>
+      <c r="F37" s="2">
+        <v>4</v>
+      </c>
+      <c r="G37" t="s">
+        <v>53</v>
+      </c>
+      <c r="H37" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" t="s">
+        <v>607</v>
+      </c>
+      <c r="C38" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" t="s">
+        <v>120</v>
+      </c>
+      <c r="E38" t="s">
+        <v>120</v>
+      </c>
+      <c r="F38" s="2">
+        <v>4</v>
+      </c>
+      <c r="G38" t="s">
+        <v>53</v>
+      </c>
+      <c r="H38" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39" t="s">
+        <v>608</v>
+      </c>
+      <c r="C39" t="s">
+        <v>50</v>
+      </c>
+      <c r="D39" t="s">
+        <v>122</v>
+      </c>
+      <c r="E39" t="s">
+        <v>122</v>
+      </c>
+      <c r="F39" s="2">
+        <v>4</v>
+      </c>
+      <c r="G39" t="s">
+        <v>53</v>
+      </c>
+      <c r="H39" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" t="s">
+        <v>609</v>
+      </c>
+      <c r="C40" t="s">
+        <v>50</v>
+      </c>
+      <c r="D40" t="s">
+        <v>124</v>
+      </c>
+      <c r="E40" t="s">
+        <v>124</v>
+      </c>
+      <c r="F40" s="2">
+        <v>4</v>
+      </c>
+      <c r="G40" t="s">
+        <v>53</v>
+      </c>
+      <c r="H40" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41" t="s">
+        <v>610</v>
+      </c>
+      <c r="C41" t="s">
+        <v>50</v>
+      </c>
+      <c r="D41" t="s">
+        <v>126</v>
+      </c>
+      <c r="E41" t="s">
+        <v>126</v>
+      </c>
+      <c r="F41" s="2">
+        <v>4</v>
+      </c>
+      <c r="G41" t="s">
+        <v>53</v>
+      </c>
+      <c r="H41" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42" t="s">
+        <v>611</v>
+      </c>
+      <c r="C42" t="s">
+        <v>50</v>
+      </c>
+      <c r="D42" t="s">
+        <v>128</v>
+      </c>
+      <c r="E42" t="s">
+        <v>128</v>
+      </c>
+      <c r="F42" s="2">
+        <v>4</v>
+      </c>
+      <c r="G42" t="s">
+        <v>53</v>
+      </c>
+      <c r="H42" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>50</v>
+      </c>
+      <c r="B43" t="s">
+        <v>612</v>
+      </c>
+      <c r="C43" t="s">
+        <v>50</v>
+      </c>
+      <c r="D43" t="s">
+        <v>130</v>
+      </c>
+      <c r="E43" t="s">
+        <v>130</v>
+      </c>
+      <c r="F43" s="2">
+        <v>4</v>
+      </c>
+      <c r="G43" t="s">
+        <v>53</v>
+      </c>
+      <c r="H43" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44" t="s">
+        <v>613</v>
+      </c>
+      <c r="C44" t="s">
+        <v>50</v>
+      </c>
+      <c r="D44" t="s">
+        <v>132</v>
+      </c>
+      <c r="E44" t="s">
+        <v>132</v>
+      </c>
+      <c r="F44" s="2">
+        <v>4</v>
+      </c>
+      <c r="G44" t="s">
+        <v>53</v>
+      </c>
+      <c r="H44" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" t="s">
+        <v>614</v>
+      </c>
+      <c r="C45" t="s">
+        <v>50</v>
+      </c>
+      <c r="D45" t="s">
+        <v>134</v>
+      </c>
+      <c r="E45" t="s">
+        <v>134</v>
+      </c>
+      <c r="F45" s="2">
+        <v>4</v>
+      </c>
+      <c r="G45" t="s">
+        <v>53</v>
+      </c>
+      <c r="H45" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" t="s">
+        <v>615</v>
+      </c>
+      <c r="C46" t="s">
+        <v>50</v>
+      </c>
+      <c r="D46" t="s">
+        <v>136</v>
+      </c>
+      <c r="E46" t="s">
+        <v>136</v>
+      </c>
+      <c r="F46" s="2">
+        <v>4</v>
+      </c>
+      <c r="G46" t="s">
+        <v>53</v>
+      </c>
+      <c r="H46" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" t="s">
+        <v>616</v>
+      </c>
+      <c r="C47" t="s">
+        <v>50</v>
+      </c>
+      <c r="D47" t="s">
+        <v>138</v>
+      </c>
+      <c r="E47" t="s">
+        <v>138</v>
+      </c>
+      <c r="F47" s="2">
+        <v>4</v>
+      </c>
+      <c r="G47" t="s">
+        <v>53</v>
+      </c>
+      <c r="H47" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" t="s">
+        <v>617</v>
+      </c>
+      <c r="C48" t="s">
+        <v>50</v>
+      </c>
+      <c r="D48" t="s">
+        <v>140</v>
+      </c>
+      <c r="E48" t="s">
+        <v>140</v>
+      </c>
+      <c r="F48" s="2">
+        <v>4</v>
+      </c>
+      <c r="G48" t="s">
+        <v>53</v>
+      </c>
+      <c r="H48" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" t="s">
+        <v>618</v>
+      </c>
+      <c r="C49" t="s">
+        <v>50</v>
+      </c>
+      <c r="D49" t="s">
+        <v>142</v>
+      </c>
+      <c r="E49" t="s">
+        <v>142</v>
+      </c>
+      <c r="F49" s="2">
+        <v>4</v>
+      </c>
+      <c r="G49" t="s">
+        <v>53</v>
+      </c>
+      <c r="H49" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" t="s">
+        <v>619</v>
+      </c>
+      <c r="C50" t="s">
+        <v>50</v>
+      </c>
+      <c r="D50" t="s">
+        <v>144</v>
+      </c>
+      <c r="E50" t="s">
+        <v>144</v>
+      </c>
+      <c r="F50" s="2">
+        <v>4</v>
+      </c>
+      <c r="G50" t="s">
+        <v>53</v>
+      </c>
+      <c r="H50" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>620</v>
+      </c>
+      <c r="C51" t="s">
+        <v>50</v>
+      </c>
+      <c r="D51" t="s">
+        <v>146</v>
+      </c>
+      <c r="E51" t="s">
+        <v>146</v>
+      </c>
+      <c r="F51" s="2">
+        <v>4</v>
+      </c>
+      <c r="G51" t="s">
+        <v>53</v>
+      </c>
+      <c r="H51" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>621</v>
+      </c>
+      <c r="C52" t="s">
+        <v>50</v>
+      </c>
+      <c r="D52" t="s">
+        <v>148</v>
+      </c>
+      <c r="E52" t="s">
+        <v>148</v>
+      </c>
+      <c r="F52" s="2">
+        <v>4</v>
+      </c>
+      <c r="G52" t="s">
+        <v>53</v>
+      </c>
+      <c r="H52" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>50</v>
+      </c>
+      <c r="B53" t="s">
+        <v>622</v>
+      </c>
+      <c r="C53" t="s">
+        <v>50</v>
+      </c>
+      <c r="D53" t="s">
+        <v>150</v>
+      </c>
+      <c r="E53" t="s">
+        <v>150</v>
+      </c>
+      <c r="F53" s="2">
+        <v>4</v>
+      </c>
+      <c r="G53" t="s">
+        <v>53</v>
+      </c>
+      <c r="H53" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>50</v>
+      </c>
+      <c r="B54" t="s">
+        <v>623</v>
+      </c>
+      <c r="C54" t="s">
+        <v>50</v>
+      </c>
+      <c r="D54" t="s">
+        <v>152</v>
+      </c>
+      <c r="E54" t="s">
+        <v>152</v>
+      </c>
+      <c r="F54" s="2">
+        <v>4</v>
+      </c>
+      <c r="G54" t="s">
+        <v>53</v>
+      </c>
+      <c r="H54" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>50</v>
+      </c>
+      <c r="B55" t="s">
+        <v>624</v>
+      </c>
+      <c r="C55" t="s">
+        <v>50</v>
+      </c>
+      <c r="D55" t="s">
+        <v>154</v>
+      </c>
+      <c r="E55" t="s">
+        <v>154</v>
+      </c>
+      <c r="F55" s="2">
+        <v>4</v>
+      </c>
+      <c r="G55" t="s">
+        <v>53</v>
+      </c>
+      <c r="H55" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>50</v>
+      </c>
+      <c r="B56" t="s">
+        <v>625</v>
+      </c>
+      <c r="C56" t="s">
+        <v>50</v>
+      </c>
+      <c r="D56" t="s">
+        <v>156</v>
+      </c>
+      <c r="E56" t="s">
+        <v>156</v>
+      </c>
+      <c r="F56" s="2">
+        <v>4</v>
+      </c>
+      <c r="G56" t="s">
+        <v>53</v>
+      </c>
+      <c r="H56" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>50</v>
+      </c>
+      <c r="B57" t="s">
+        <v>626</v>
+      </c>
+      <c r="C57" t="s">
+        <v>50</v>
+      </c>
+      <c r="D57" t="s">
+        <v>158</v>
+      </c>
+      <c r="E57" t="s">
+        <v>158</v>
+      </c>
+      <c r="F57" s="2">
+        <v>4</v>
+      </c>
+      <c r="G57" t="s">
+        <v>53</v>
+      </c>
+      <c r="H57" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>50</v>
+      </c>
+      <c r="B58" t="s">
+        <v>627</v>
+      </c>
+      <c r="C58" t="s">
+        <v>50</v>
+      </c>
+      <c r="D58" t="s">
+        <v>160</v>
+      </c>
+      <c r="E58" t="s">
+        <v>160</v>
+      </c>
+      <c r="F58" s="2">
+        <v>4</v>
+      </c>
+      <c r="G58" t="s">
+        <v>53</v>
+      </c>
+      <c r="H58" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>162</v>
+      </c>
+      <c r="B59" t="s">
+        <v>163</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D59" t="s">
+        <v>165</v>
+      </c>
+      <c r="E59" t="s">
+        <v>165</v>
+      </c>
+      <c r="F59" s="2">
+        <v>4</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H59" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>162</v>
+      </c>
+      <c r="B60" t="s">
+        <v>167</v>
+      </c>
+      <c r="C60" t="s">
+        <v>164</v>
+      </c>
+      <c r="D60" t="s">
+        <v>168</v>
+      </c>
+      <c r="E60" t="s">
+        <v>168</v>
+      </c>
+      <c r="F60" s="2">
+        <v>4</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H60" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>162</v>
+      </c>
+      <c r="B61" t="s">
+        <v>170</v>
+      </c>
+      <c r="C61" t="s">
+        <v>164</v>
+      </c>
+      <c r="D61" t="s">
+        <v>171</v>
+      </c>
+      <c r="E61" t="s">
+        <v>171</v>
+      </c>
+      <c r="F61" s="2">
+        <v>4</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H61" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>162</v>
+      </c>
+      <c r="B62" t="s">
+        <v>173</v>
+      </c>
+      <c r="C62" t="s">
+        <v>164</v>
+      </c>
+      <c r="D62" t="s">
+        <v>174</v>
+      </c>
+      <c r="E62" t="s">
+        <v>174</v>
+      </c>
+      <c r="F62" s="2">
+        <v>4</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H62" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>162</v>
+      </c>
+      <c r="B63" t="s">
+        <v>176</v>
+      </c>
+      <c r="C63" t="s">
+        <v>164</v>
+      </c>
+      <c r="D63" t="s">
+        <v>177</v>
+      </c>
+      <c r="E63" t="s">
+        <v>177</v>
+      </c>
+      <c r="F63" s="2">
+        <v>4</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H63" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>162</v>
+      </c>
+      <c r="B64" t="s">
+        <v>179</v>
+      </c>
+      <c r="C64" t="s">
+        <v>164</v>
+      </c>
+      <c r="D64" t="s">
+        <v>180</v>
+      </c>
+      <c r="E64" t="s">
+        <v>180</v>
+      </c>
+      <c r="F64" s="2">
+        <v>4</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H64" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>162</v>
+      </c>
+      <c r="B65" t="s">
+        <v>182</v>
+      </c>
+      <c r="C65" t="s">
+        <v>164</v>
+      </c>
+      <c r="D65" t="s">
+        <v>171</v>
+      </c>
+      <c r="E65" t="s">
+        <v>171</v>
+      </c>
+      <c r="F65" s="2">
+        <v>4</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H65" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>162</v>
+      </c>
+      <c r="B66" t="s">
+        <v>183</v>
+      </c>
+      <c r="C66" t="s">
+        <v>164</v>
+      </c>
+      <c r="D66" t="s">
+        <v>180</v>
+      </c>
+      <c r="E66" t="s">
+        <v>180</v>
+      </c>
+      <c r="F66" s="2">
+        <v>4</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H66" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>162</v>
+      </c>
+      <c r="B67" t="s">
+        <v>184</v>
+      </c>
+      <c r="C67" t="s">
+        <v>164</v>
+      </c>
+      <c r="D67" t="s">
+        <v>168</v>
+      </c>
+      <c r="E67" t="s">
+        <v>168</v>
+      </c>
+      <c r="F67" s="2">
+        <v>4</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H67" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>162</v>
+      </c>
+      <c r="B68" t="s">
+        <v>185</v>
+      </c>
+      <c r="C68" t="s">
+        <v>164</v>
+      </c>
+      <c r="D68" t="s">
+        <v>186</v>
+      </c>
+      <c r="E68" t="s">
+        <v>186</v>
+      </c>
+      <c r="F68" s="2">
+        <v>4</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H68" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>162</v>
+      </c>
+      <c r="B69" t="s">
+        <v>188</v>
+      </c>
+      <c r="C69" t="s">
+        <v>164</v>
+      </c>
+      <c r="D69" t="s">
+        <v>189</v>
+      </c>
+      <c r="E69" t="s">
+        <v>189</v>
+      </c>
+      <c r="F69" s="2">
+        <v>4</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H69" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>162</v>
+      </c>
+      <c r="B70" t="s">
+        <v>191</v>
+      </c>
+      <c r="C70" t="s">
+        <v>164</v>
+      </c>
+      <c r="D70" t="s">
+        <v>192</v>
+      </c>
+      <c r="E70" t="s">
+        <v>192</v>
+      </c>
+      <c r="F70" s="2">
+        <v>4</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H70" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>162</v>
+      </c>
+      <c r="B71" t="s">
+        <v>194</v>
+      </c>
+      <c r="C71" t="s">
+        <v>164</v>
+      </c>
+      <c r="D71" t="s">
+        <v>195</v>
+      </c>
+      <c r="E71" t="s">
+        <v>195</v>
+      </c>
+      <c r="F71" s="2">
+        <v>4</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H71" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>162</v>
+      </c>
+      <c r="B72" t="s">
+        <v>197</v>
+      </c>
+      <c r="C72" t="s">
+        <v>164</v>
+      </c>
+      <c r="D72" t="s">
+        <v>174</v>
+      </c>
+      <c r="E72" t="s">
+        <v>174</v>
+      </c>
+      <c r="F72" s="2">
+        <v>4</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H72" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>162</v>
+      </c>
+      <c r="B73" t="s">
+        <v>198</v>
+      </c>
+      <c r="C73" t="s">
+        <v>164</v>
+      </c>
+      <c r="D73" t="s">
+        <v>199</v>
+      </c>
+      <c r="E73" t="s">
+        <v>199</v>
+      </c>
+      <c r="F73" s="2">
+        <v>4</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H73" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>162</v>
+      </c>
+      <c r="B74" t="s">
+        <v>201</v>
+      </c>
+      <c r="C74" t="s">
+        <v>164</v>
+      </c>
+      <c r="D74" t="s">
+        <v>174</v>
+      </c>
+      <c r="E74" t="s">
+        <v>174</v>
+      </c>
+      <c r="F74" s="2">
+        <v>4</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H74" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>162</v>
+      </c>
+      <c r="B75" t="s">
+        <v>202</v>
+      </c>
+      <c r="C75" t="s">
+        <v>164</v>
+      </c>
+      <c r="D75" t="s">
+        <v>203</v>
+      </c>
+      <c r="E75" t="s">
+        <v>203</v>
+      </c>
+      <c r="F75" s="2">
+        <v>4</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H75" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>162</v>
+      </c>
+      <c r="B76" t="s">
+        <v>205</v>
+      </c>
+      <c r="C76" t="s">
+        <v>164</v>
+      </c>
+      <c r="D76" t="s">
+        <v>206</v>
+      </c>
+      <c r="E76" t="s">
+        <v>206</v>
+      </c>
+      <c r="F76" s="2">
+        <v>4</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H76" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>162</v>
+      </c>
+      <c r="B77" t="s">
+        <v>185</v>
+      </c>
+      <c r="C77" t="s">
+        <v>164</v>
+      </c>
+      <c r="D77" t="s">
+        <v>186</v>
+      </c>
+      <c r="E77" t="s">
+        <v>186</v>
+      </c>
+      <c r="F77" s="2">
+        <v>4</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H77" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>162</v>
+      </c>
+      <c r="B78" t="s">
+        <v>208</v>
+      </c>
+      <c r="C78" t="s">
+        <v>164</v>
+      </c>
+      <c r="D78" t="s">
+        <v>209</v>
+      </c>
+      <c r="E78" t="s">
+        <v>209</v>
+      </c>
+      <c r="F78" s="2">
+        <v>4</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H78" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>162</v>
+      </c>
+      <c r="B79" t="s">
+        <v>211</v>
+      </c>
+      <c r="C79" t="s">
+        <v>164</v>
+      </c>
+      <c r="D79" t="s">
+        <v>212</v>
+      </c>
+      <c r="E79" t="s">
+        <v>212</v>
+      </c>
+      <c r="F79" s="2">
+        <v>4</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H79" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>162</v>
+      </c>
+      <c r="B80" t="s">
+        <v>214</v>
+      </c>
+      <c r="C80" t="s">
+        <v>164</v>
+      </c>
+      <c r="D80" t="s">
+        <v>215</v>
+      </c>
+      <c r="E80" t="s">
+        <v>215</v>
+      </c>
+      <c r="F80" s="2">
+        <v>4</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H80" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>162</v>
+      </c>
+      <c r="B81" t="s">
+        <v>217</v>
+      </c>
+      <c r="C81" t="s">
+        <v>164</v>
+      </c>
+      <c r="D81" t="s">
+        <v>189</v>
+      </c>
+      <c r="E81" t="s">
+        <v>189</v>
+      </c>
+      <c r="F81" s="2">
+        <v>4</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H81" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>162</v>
+      </c>
+      <c r="B82" t="s">
+        <v>218</v>
+      </c>
+      <c r="C82" t="s">
+        <v>164</v>
+      </c>
+      <c r="D82" t="s">
+        <v>219</v>
+      </c>
+      <c r="E82" t="s">
+        <v>219</v>
+      </c>
+      <c r="F82" s="2">
+        <v>4</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H82" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>162</v>
+      </c>
+      <c r="B83" t="s">
+        <v>221</v>
+      </c>
+      <c r="C83" t="s">
+        <v>164</v>
+      </c>
+      <c r="D83" t="s">
+        <v>222</v>
+      </c>
+      <c r="E83" t="s">
+        <v>222</v>
+      </c>
+      <c r="F83" s="2">
+        <v>4</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H83" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>162</v>
+      </c>
+      <c r="B84" t="s">
+        <v>224</v>
+      </c>
+      <c r="C84" t="s">
+        <v>164</v>
+      </c>
+      <c r="D84" t="s">
+        <v>225</v>
+      </c>
+      <c r="E84" t="s">
+        <v>225</v>
+      </c>
+      <c r="F84" s="2">
+        <v>4</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H84" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>162</v>
+      </c>
+      <c r="B85" t="s">
+        <v>227</v>
+      </c>
+      <c r="C85" t="s">
+        <v>164</v>
+      </c>
+      <c r="D85" t="s">
+        <v>174</v>
+      </c>
+      <c r="E85" t="s">
+        <v>174</v>
+      </c>
+      <c r="F85" s="2">
+        <v>4</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H85" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>162</v>
+      </c>
+      <c r="B86" t="s">
+        <v>228</v>
+      </c>
+      <c r="C86" t="s">
+        <v>164</v>
+      </c>
+      <c r="D86" t="s">
+        <v>180</v>
+      </c>
+      <c r="E86" t="s">
+        <v>180</v>
+      </c>
+      <c r="F86" s="2">
+        <v>4</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H86" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>162</v>
+      </c>
+      <c r="B87" t="s">
+        <v>229</v>
+      </c>
+      <c r="C87" t="s">
+        <v>164</v>
+      </c>
+      <c r="D87" t="s">
+        <v>174</v>
+      </c>
+      <c r="E87" t="s">
+        <v>174</v>
+      </c>
+      <c r="F87" s="2">
+        <v>4</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H87" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>162</v>
+      </c>
+      <c r="B88" t="s">
+        <v>230</v>
+      </c>
+      <c r="C88" t="s">
+        <v>164</v>
+      </c>
+      <c r="D88" t="s">
+        <v>231</v>
+      </c>
+      <c r="E88" t="s">
+        <v>231</v>
+      </c>
+      <c r="F88" s="2">
+        <v>4</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H88" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>162</v>
+      </c>
+      <c r="B89" t="s">
+        <v>233</v>
+      </c>
+      <c r="C89" t="s">
+        <v>164</v>
+      </c>
+      <c r="D89" t="s">
+        <v>174</v>
+      </c>
+      <c r="E89" t="s">
+        <v>174</v>
+      </c>
+      <c r="F89" s="2">
+        <v>4</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H89" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>162</v>
+      </c>
+      <c r="B90" t="s">
+        <v>234</v>
+      </c>
+      <c r="C90" t="s">
+        <v>164</v>
+      </c>
+      <c r="D90" t="s">
+        <v>168</v>
+      </c>
+      <c r="E90" t="s">
+        <v>168</v>
+      </c>
+      <c r="F90" s="2">
+        <v>4</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H90" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>162</v>
+      </c>
+      <c r="B91" t="s">
+        <v>235</v>
+      </c>
+      <c r="C91" t="s">
+        <v>164</v>
+      </c>
+      <c r="D91" t="s">
+        <v>174</v>
+      </c>
+      <c r="E91" t="s">
+        <v>174</v>
+      </c>
+      <c r="F91" s="2">
+        <v>4</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H91" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>162</v>
+      </c>
+      <c r="B92" t="s">
+        <v>236</v>
+      </c>
+      <c r="C92" t="s">
+        <v>164</v>
+      </c>
+      <c r="D92" t="s">
+        <v>180</v>
+      </c>
+      <c r="E92" t="s">
+        <v>180</v>
+      </c>
+      <c r="F92" s="2">
+        <v>4</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H92" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>162</v>
+      </c>
+      <c r="B93" t="s">
+        <v>237</v>
+      </c>
+      <c r="C93" t="s">
+        <v>164</v>
+      </c>
+      <c r="D93" t="s">
+        <v>222</v>
+      </c>
+      <c r="E93" t="s">
+        <v>222</v>
+      </c>
+      <c r="F93" s="2">
+        <v>4</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H93" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>162</v>
+      </c>
+      <c r="B94" t="s">
+        <v>238</v>
+      </c>
+      <c r="C94" t="s">
+        <v>164</v>
+      </c>
+      <c r="D94" t="s">
+        <v>180</v>
+      </c>
+      <c r="E94" t="s">
+        <v>180</v>
+      </c>
+      <c r="F94" s="2">
+        <v>4</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H94" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>162</v>
+      </c>
+      <c r="B95" t="s">
+        <v>239</v>
+      </c>
+      <c r="C95" t="s">
+        <v>164</v>
+      </c>
+      <c r="D95" t="s">
+        <v>240</v>
+      </c>
+      <c r="E95" t="s">
+        <v>240</v>
+      </c>
+      <c r="F95" s="2">
+        <v>4</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H95" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>162</v>
+      </c>
+      <c r="B96" t="s">
+        <v>242</v>
+      </c>
+      <c r="C96" t="s">
+        <v>164</v>
+      </c>
+      <c r="D96" t="s">
+        <v>243</v>
+      </c>
+      <c r="E96" t="s">
+        <v>243</v>
+      </c>
+      <c r="F96" s="2">
+        <v>4</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H96" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>162</v>
+      </c>
+      <c r="B97" t="s">
+        <v>245</v>
+      </c>
+      <c r="C97" t="s">
+        <v>164</v>
+      </c>
+      <c r="D97" t="s">
+        <v>246</v>
+      </c>
+      <c r="E97" t="s">
+        <v>246</v>
+      </c>
+      <c r="F97" s="2">
+        <v>4</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H97" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>162</v>
+      </c>
+      <c r="B98" t="s">
+        <v>248</v>
+      </c>
+      <c r="C98" t="s">
+        <v>164</v>
+      </c>
+      <c r="D98" t="s">
+        <v>174</v>
+      </c>
+      <c r="E98" t="s">
+        <v>174</v>
+      </c>
+      <c r="F98" s="2">
+        <v>4</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H98" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>162</v>
+      </c>
+      <c r="B99" t="s">
+        <v>249</v>
+      </c>
+      <c r="C99" t="s">
+        <v>164</v>
+      </c>
+      <c r="D99" t="s">
+        <v>250</v>
+      </c>
+      <c r="E99" t="s">
+        <v>250</v>
+      </c>
+      <c r="F99" s="2">
+        <v>4</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H99" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>162</v>
+      </c>
+      <c r="B100" t="s">
+        <v>252</v>
+      </c>
+      <c r="C100" t="s">
+        <v>164</v>
+      </c>
+      <c r="D100" t="s">
+        <v>253</v>
+      </c>
+      <c r="E100" t="s">
+        <v>253</v>
+      </c>
+      <c r="F100" s="2">
+        <v>4</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H100" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>162</v>
+      </c>
+      <c r="B101" t="s">
+        <v>255</v>
+      </c>
+      <c r="C101" t="s">
+        <v>164</v>
+      </c>
+      <c r="D101" t="s">
+        <v>180</v>
+      </c>
+      <c r="E101" t="s">
+        <v>180</v>
+      </c>
+      <c r="F101" s="2">
+        <v>4</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H101" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>162</v>
+      </c>
+      <c r="B102" t="s">
+        <v>256</v>
+      </c>
+      <c r="C102" t="s">
+        <v>164</v>
+      </c>
+      <c r="D102" t="s">
+        <v>257</v>
+      </c>
+      <c r="E102" t="s">
+        <v>257</v>
+      </c>
+      <c r="F102" s="2">
+        <v>4</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H102" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>162</v>
+      </c>
+      <c r="B103" t="s">
+        <v>259</v>
+      </c>
+      <c r="C103" t="s">
+        <v>164</v>
+      </c>
+      <c r="D103" t="s">
+        <v>174</v>
+      </c>
+      <c r="E103" t="s">
+        <v>174</v>
+      </c>
+      <c r="F103" s="2">
+        <v>4</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H103" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>162</v>
+      </c>
+      <c r="B104" t="s">
+        <v>260</v>
+      </c>
+      <c r="C104" t="s">
+        <v>164</v>
+      </c>
+      <c r="D104" t="s">
+        <v>168</v>
+      </c>
+      <c r="E104" t="s">
+        <v>168</v>
+      </c>
+      <c r="F104" s="2">
+        <v>4</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H104" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>162</v>
+      </c>
+      <c r="B105" t="s">
+        <v>261</v>
+      </c>
+      <c r="C105" t="s">
+        <v>164</v>
+      </c>
+      <c r="D105" t="s">
+        <v>262</v>
+      </c>
+      <c r="E105" t="s">
+        <v>262</v>
+      </c>
+      <c r="F105" s="2">
+        <v>4</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H105" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>162</v>
+      </c>
+      <c r="B106" t="s">
+        <v>264</v>
+      </c>
+      <c r="C106" t="s">
+        <v>164</v>
+      </c>
+      <c r="D106" t="s">
+        <v>180</v>
+      </c>
+      <c r="E106" t="s">
+        <v>180</v>
+      </c>
+      <c r="F106" s="2">
+        <v>4</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H106" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>162</v>
+      </c>
+      <c r="B107" t="s">
+        <v>265</v>
+      </c>
+      <c r="C107" t="s">
+        <v>164</v>
+      </c>
+      <c r="D107" t="s">
+        <v>222</v>
+      </c>
+      <c r="E107" t="s">
+        <v>222</v>
+      </c>
+      <c r="F107" s="2">
+        <v>4</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H107" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>162</v>
+      </c>
+      <c r="B108" t="s">
+        <v>233</v>
+      </c>
+      <c r="C108" t="s">
+        <v>164</v>
+      </c>
+      <c r="D108" t="s">
+        <v>266</v>
+      </c>
+      <c r="E108" t="s">
+        <v>266</v>
+      </c>
+      <c r="F108" s="2">
+        <v>4</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H108" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>162</v>
+      </c>
+      <c r="B109" t="s">
+        <v>268</v>
+      </c>
+      <c r="C109" t="s">
+        <v>164</v>
+      </c>
+      <c r="D109" t="s">
+        <v>269</v>
+      </c>
+      <c r="E109" t="s">
+        <v>269</v>
+      </c>
+      <c r="F109" s="2">
+        <v>4</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H109" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>162</v>
+      </c>
+      <c r="B110" t="s">
+        <v>271</v>
+      </c>
+      <c r="C110" t="s">
+        <v>164</v>
+      </c>
+      <c r="D110" t="s">
+        <v>174</v>
+      </c>
+      <c r="E110" t="s">
+        <v>174</v>
+      </c>
+      <c r="F110" s="2">
+        <v>4</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H110" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>162</v>
+      </c>
+      <c r="B111" t="s">
+        <v>272</v>
+      </c>
+      <c r="C111" t="s">
+        <v>164</v>
+      </c>
+      <c r="D111" t="s">
+        <v>273</v>
+      </c>
+      <c r="E111" t="s">
+        <v>273</v>
+      </c>
+      <c r="F111" s="2">
+        <v>4</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H111" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>162</v>
+      </c>
+      <c r="B112" t="s">
+        <v>275</v>
+      </c>
+      <c r="C112" t="s">
+        <v>164</v>
+      </c>
+      <c r="D112" t="s">
+        <v>174</v>
+      </c>
+      <c r="E112" t="s">
+        <v>174</v>
+      </c>
+      <c r="F112" s="2">
+        <v>4</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H112" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>162</v>
+      </c>
+      <c r="B113" t="s">
+        <v>276</v>
+      </c>
+      <c r="C113" t="s">
+        <v>164</v>
+      </c>
+      <c r="D113" t="s">
+        <v>277</v>
+      </c>
+      <c r="E113" t="s">
+        <v>277</v>
+      </c>
+      <c r="F113" s="2">
+        <v>4</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H113" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>162</v>
+      </c>
+      <c r="B114" t="s">
+        <v>279</v>
+      </c>
+      <c r="C114" t="s">
+        <v>164</v>
+      </c>
+      <c r="D114" t="s">
+        <v>280</v>
+      </c>
+      <c r="E114" t="s">
+        <v>280</v>
+      </c>
+      <c r="F114" s="2">
+        <v>4</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H114" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>162</v>
+      </c>
+      <c r="B115" t="s">
+        <v>282</v>
+      </c>
+      <c r="C115" t="s">
+        <v>164</v>
+      </c>
+      <c r="D115" t="s">
+        <v>283</v>
+      </c>
+      <c r="E115" t="s">
+        <v>283</v>
+      </c>
+      <c r="F115" s="2">
+        <v>4</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H115" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>162</v>
+      </c>
+      <c r="B116" t="s">
+        <v>285</v>
+      </c>
+      <c r="C116" t="s">
+        <v>164</v>
+      </c>
+      <c r="D116" t="s">
+        <v>180</v>
+      </c>
+      <c r="E116" t="s">
+        <v>180</v>
+      </c>
+      <c r="F116" s="2">
+        <v>4</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H116" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>162</v>
+      </c>
+      <c r="B117" t="s">
+        <v>286</v>
+      </c>
+      <c r="C117" t="s">
+        <v>164</v>
+      </c>
+      <c r="D117" t="s">
+        <v>168</v>
+      </c>
+      <c r="E117" t="s">
+        <v>168</v>
+      </c>
+      <c r="F117" s="2">
+        <v>4</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H117" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>162</v>
+      </c>
+      <c r="B118" t="s">
+        <v>287</v>
+      </c>
+      <c r="C118" t="s">
+        <v>164</v>
+      </c>
+      <c r="D118" t="s">
+        <v>180</v>
+      </c>
+      <c r="E118" t="s">
+        <v>180</v>
+      </c>
+      <c r="F118" s="2">
+        <v>4</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H118" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>162</v>
+      </c>
+      <c r="B119" t="s">
+        <v>288</v>
+      </c>
+      <c r="C119" t="s">
+        <v>164</v>
+      </c>
+      <c r="D119" t="s">
+        <v>231</v>
+      </c>
+      <c r="E119" t="s">
+        <v>231</v>
+      </c>
+      <c r="F119" s="2">
+        <v>4</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H119" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>162</v>
+      </c>
+      <c r="B120" t="s">
+        <v>289</v>
+      </c>
+      <c r="C120" t="s">
+        <v>164</v>
+      </c>
+      <c r="D120" t="s">
+        <v>174</v>
+      </c>
+      <c r="E120" t="s">
+        <v>174</v>
+      </c>
+      <c r="F120" s="2">
+        <v>4</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H120" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>162</v>
+      </c>
+      <c r="B121" t="s">
+        <v>290</v>
+      </c>
+      <c r="C121" t="s">
+        <v>164</v>
+      </c>
+      <c r="D121" t="s">
+        <v>180</v>
+      </c>
+      <c r="E121" t="s">
+        <v>180</v>
+      </c>
+      <c r="F121" s="2">
+        <v>4</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H121" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>162</v>
+      </c>
+      <c r="B122" t="s">
+        <v>291</v>
+      </c>
+      <c r="C122" t="s">
+        <v>164</v>
+      </c>
+      <c r="D122" t="s">
+        <v>180</v>
+      </c>
+      <c r="E122" t="s">
+        <v>180</v>
+      </c>
+      <c r="F122" s="2">
+        <v>4</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H122" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>162</v>
+      </c>
+      <c r="B123" t="s">
+        <v>292</v>
+      </c>
+      <c r="C123" t="s">
+        <v>164</v>
+      </c>
+      <c r="D123" t="s">
+        <v>293</v>
+      </c>
+      <c r="E123" t="s">
+        <v>293</v>
+      </c>
+      <c r="F123" s="2">
+        <v>4</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H123" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>162</v>
+      </c>
+      <c r="B124" t="s">
+        <v>295</v>
+      </c>
+      <c r="C124" t="s">
+        <v>164</v>
+      </c>
+      <c r="D124" t="s">
+        <v>296</v>
+      </c>
+      <c r="E124" t="s">
+        <v>296</v>
+      </c>
+      <c r="F124" s="2">
+        <v>4</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H124" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>162</v>
+      </c>
+      <c r="B125" t="s">
+        <v>298</v>
+      </c>
+      <c r="C125" t="s">
+        <v>164</v>
+      </c>
+      <c r="D125" t="s">
+        <v>299</v>
+      </c>
+      <c r="E125" t="s">
+        <v>299</v>
+      </c>
+      <c r="F125" s="2">
+        <v>4</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H125" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>162</v>
+      </c>
+      <c r="B126" t="s">
+        <v>301</v>
+      </c>
+      <c r="C126" t="s">
+        <v>164</v>
+      </c>
+      <c r="D126" t="s">
+        <v>164</v>
+      </c>
+      <c r="E126" t="s">
+        <v>164</v>
+      </c>
+      <c r="F126" s="2">
+        <v>4</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H126" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>162</v>
+      </c>
+      <c r="B127" t="s">
+        <v>303</v>
+      </c>
+      <c r="C127" t="s">
+        <v>164</v>
+      </c>
+      <c r="D127" t="s">
+        <v>293</v>
+      </c>
+      <c r="E127" t="s">
+        <v>293</v>
+      </c>
+      <c r="F127" s="2">
+        <v>4</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H127" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>162</v>
+      </c>
+      <c r="B128" t="s">
+        <v>304</v>
+      </c>
+      <c r="C128" t="s">
+        <v>164</v>
+      </c>
+      <c r="D128" t="s">
+        <v>180</v>
+      </c>
+      <c r="E128" t="s">
+        <v>180</v>
+      </c>
+      <c r="F128" s="2">
+        <v>4</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H128" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>162</v>
+      </c>
+      <c r="B129" t="s">
+        <v>305</v>
+      </c>
+      <c r="C129" t="s">
+        <v>164</v>
+      </c>
+      <c r="D129" t="s">
+        <v>257</v>
+      </c>
+      <c r="E129" t="s">
+        <v>257</v>
+      </c>
+      <c r="F129" s="2">
+        <v>4</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H129" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>162</v>
+      </c>
+      <c r="B130" t="s">
+        <v>306</v>
+      </c>
+      <c r="C130" t="s">
+        <v>164</v>
+      </c>
+      <c r="D130" t="s">
+        <v>307</v>
+      </c>
+      <c r="E130" t="s">
+        <v>307</v>
+      </c>
+      <c r="F130" s="2">
+        <v>4</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H130" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>162</v>
+      </c>
+      <c r="B131" t="s">
+        <v>309</v>
+      </c>
+      <c r="C131" t="s">
+        <v>164</v>
+      </c>
+      <c r="D131" t="s">
+        <v>174</v>
+      </c>
+      <c r="E131" t="s">
+        <v>174</v>
+      </c>
+      <c r="F131" s="2">
+        <v>4</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H131" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>162</v>
+      </c>
+      <c r="B132" t="s">
+        <v>310</v>
+      </c>
+      <c r="C132" t="s">
+        <v>164</v>
+      </c>
+      <c r="D132" t="s">
+        <v>203</v>
+      </c>
+      <c r="E132" t="s">
+        <v>203</v>
+      </c>
+      <c r="F132" s="2">
+        <v>4</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H132" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>162</v>
+      </c>
+      <c r="B133" t="s">
+        <v>311</v>
+      </c>
+      <c r="C133" t="s">
+        <v>164</v>
+      </c>
+      <c r="D133" t="s">
+        <v>174</v>
+      </c>
+      <c r="E133" t="s">
+        <v>174</v>
+      </c>
+      <c r="F133" s="2">
+        <v>4</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H133" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>162</v>
+      </c>
+      <c r="B134" t="s">
+        <v>265</v>
+      </c>
+      <c r="C134" t="s">
+        <v>164</v>
+      </c>
+      <c r="D134" t="s">
+        <v>312</v>
+      </c>
+      <c r="E134" t="s">
+        <v>312</v>
+      </c>
+      <c r="F134" s="2">
+        <v>4</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H134" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>162</v>
+      </c>
+      <c r="B135" t="s">
+        <v>314</v>
+      </c>
+      <c r="C135" t="s">
+        <v>164</v>
+      </c>
+      <c r="D135" t="s">
+        <v>315</v>
+      </c>
+      <c r="E135" t="s">
+        <v>315</v>
+      </c>
+      <c r="F135" s="2">
+        <v>4</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H135" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>162</v>
+      </c>
+      <c r="B136" t="s">
+        <v>317</v>
+      </c>
+      <c r="C136" t="s">
+        <v>164</v>
+      </c>
+      <c r="D136" t="s">
+        <v>318</v>
+      </c>
+      <c r="E136" t="s">
+        <v>318</v>
+      </c>
+      <c r="F136" s="2">
+        <v>4</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H136" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>162</v>
+      </c>
+      <c r="B137" t="s">
+        <v>320</v>
+      </c>
+      <c r="C137" t="s">
+        <v>164</v>
+      </c>
+      <c r="D137" t="s">
+        <v>171</v>
+      </c>
+      <c r="E137" t="s">
+        <v>171</v>
+      </c>
+      <c r="F137" s="2">
+        <v>4</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H137" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>162</v>
+      </c>
+      <c r="B138" t="s">
+        <v>321</v>
+      </c>
+      <c r="C138" t="s">
+        <v>164</v>
+      </c>
+      <c r="D138" t="s">
+        <v>322</v>
+      </c>
+      <c r="E138" t="s">
+        <v>322</v>
+      </c>
+      <c r="F138" s="2">
+        <v>4</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H138" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>162</v>
+      </c>
+      <c r="B139" t="s">
+        <v>324</v>
+      </c>
+      <c r="C139" t="s">
+        <v>164</v>
+      </c>
+      <c r="D139" t="s">
+        <v>174</v>
+      </c>
+      <c r="E139" t="s">
+        <v>174</v>
+      </c>
+      <c r="F139" s="2">
+        <v>4</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H139" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>162</v>
+      </c>
+      <c r="B140" t="s">
+        <v>325</v>
+      </c>
+      <c r="C140" t="s">
+        <v>164</v>
+      </c>
+      <c r="D140" t="s">
+        <v>174</v>
+      </c>
+      <c r="E140" t="s">
+        <v>174</v>
+      </c>
+      <c r="F140" s="2">
+        <v>4</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H140" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>162</v>
+      </c>
+      <c r="B141" t="s">
+        <v>326</v>
+      </c>
+      <c r="C141" t="s">
+        <v>164</v>
+      </c>
+      <c r="D141" t="s">
+        <v>203</v>
+      </c>
+      <c r="E141" t="s">
+        <v>203</v>
+      </c>
+      <c r="F141" s="2">
+        <v>4</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H141" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>162</v>
+      </c>
+      <c r="B142" t="s">
+        <v>327</v>
+      </c>
+      <c r="C142" t="s">
+        <v>164</v>
+      </c>
+      <c r="D142" t="s">
+        <v>328</v>
+      </c>
+      <c r="E142" t="s">
+        <v>328</v>
+      </c>
+      <c r="F142" s="2">
+        <v>4</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H142" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>162</v>
+      </c>
+      <c r="B143" t="s">
+        <v>330</v>
+      </c>
+      <c r="C143" t="s">
+        <v>164</v>
+      </c>
+      <c r="D143" t="s">
+        <v>296</v>
+      </c>
+      <c r="E143" t="s">
+        <v>296</v>
+      </c>
+      <c r="F143" s="2">
+        <v>4</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H143" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>162</v>
+      </c>
+      <c r="B144" t="s">
+        <v>331</v>
+      </c>
+      <c r="C144" t="s">
+        <v>164</v>
+      </c>
+      <c r="D144" t="s">
+        <v>203</v>
+      </c>
+      <c r="E144" t="s">
+        <v>203</v>
+      </c>
+      <c r="F144" s="2">
+        <v>4</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H144" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>162</v>
+      </c>
+      <c r="B145" t="s">
+        <v>332</v>
+      </c>
+      <c r="C145" t="s">
+        <v>164</v>
+      </c>
+      <c r="D145" t="s">
+        <v>333</v>
+      </c>
+      <c r="E145" t="s">
+        <v>333</v>
+      </c>
+      <c r="F145" s="2">
+        <v>4</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H145" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>162</v>
+      </c>
+      <c r="B146" t="s">
+        <v>335</v>
+      </c>
+      <c r="C146" t="s">
+        <v>164</v>
+      </c>
+      <c r="D146" t="s">
+        <v>336</v>
+      </c>
+      <c r="E146" t="s">
+        <v>336</v>
+      </c>
+      <c r="F146" s="2">
+        <v>4</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H146" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>162</v>
+      </c>
+      <c r="B147" t="s">
+        <v>338</v>
+      </c>
+      <c r="C147" t="s">
+        <v>164</v>
+      </c>
+      <c r="D147" t="s">
+        <v>296</v>
+      </c>
+      <c r="E147" t="s">
+        <v>296</v>
+      </c>
+      <c r="F147" s="2">
+        <v>4</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H147" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>162</v>
+      </c>
+      <c r="B148" t="s">
+        <v>339</v>
+      </c>
+      <c r="C148" t="s">
+        <v>164</v>
+      </c>
+      <c r="D148" t="s">
+        <v>336</v>
+      </c>
+      <c r="E148" t="s">
+        <v>336</v>
+      </c>
+      <c r="F148" s="2">
+        <v>4</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H148" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>162</v>
+      </c>
+      <c r="B149" t="s">
+        <v>340</v>
+      </c>
+      <c r="C149" t="s">
+        <v>164</v>
+      </c>
+      <c r="D149" t="s">
+        <v>341</v>
+      </c>
+      <c r="E149" t="s">
+        <v>341</v>
+      </c>
+      <c r="F149" s="2">
+        <v>4</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H149" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>162</v>
+      </c>
+      <c r="B150" t="s">
+        <v>343</v>
+      </c>
+      <c r="C150" t="s">
+        <v>164</v>
+      </c>
+      <c r="D150" t="s">
+        <v>206</v>
+      </c>
+      <c r="E150" t="s">
+        <v>206</v>
+      </c>
+      <c r="F150" s="2">
+        <v>4</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H150" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>162</v>
+      </c>
+      <c r="B151" t="s">
+        <v>344</v>
+      </c>
+      <c r="C151" t="s">
+        <v>164</v>
+      </c>
+      <c r="D151" t="s">
+        <v>628</v>
+      </c>
+      <c r="E151" t="s">
+        <v>628</v>
+      </c>
+      <c r="F151" s="2">
+        <v>4</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H151" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>162</v>
+      </c>
+      <c r="B152" t="s">
+        <v>345</v>
+      </c>
+      <c r="C152" t="s">
+        <v>164</v>
+      </c>
+      <c r="D152" t="s">
+        <v>177</v>
+      </c>
+      <c r="E152" t="s">
+        <v>177</v>
+      </c>
+      <c r="F152" s="2">
+        <v>4</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H152" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>162</v>
+      </c>
+      <c r="B153" t="s">
+        <v>346</v>
+      </c>
+      <c r="C153" t="s">
+        <v>164</v>
+      </c>
+      <c r="D153" t="s">
+        <v>177</v>
+      </c>
+      <c r="E153" t="s">
+        <v>177</v>
+      </c>
+      <c r="F153" s="2">
+        <v>4</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H153" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>347</v>
+      </c>
+      <c r="B154" t="s">
+        <v>348</v>
+      </c>
+      <c r="C154" t="s">
+        <v>347</v>
+      </c>
+      <c r="D154" t="s">
+        <v>349</v>
+      </c>
+      <c r="E154" t="s">
+        <v>349</v>
+      </c>
+      <c r="F154" s="2">
+        <v>5</v>
+      </c>
+      <c r="G154" t="s">
+        <v>350</v>
+      </c>
+      <c r="H154" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>347</v>
+      </c>
+      <c r="B155" t="s">
+        <v>352</v>
+      </c>
+      <c r="C155" t="s">
+        <v>347</v>
+      </c>
+      <c r="D155" t="s">
+        <v>353</v>
+      </c>
+      <c r="E155" t="s">
+        <v>353</v>
+      </c>
+      <c r="F155" s="2">
+        <v>5</v>
+      </c>
+      <c r="G155" t="s">
+        <v>350</v>
+      </c>
+      <c r="H155" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>347</v>
+      </c>
+      <c r="B156" t="s">
+        <v>355</v>
+      </c>
+      <c r="C156" t="s">
+        <v>347</v>
+      </c>
+      <c r="D156" t="s">
+        <v>356</v>
+      </c>
+      <c r="E156" t="s">
+        <v>356</v>
+      </c>
+      <c r="F156" s="2">
+        <v>5</v>
+      </c>
+      <c r="G156" t="s">
+        <v>350</v>
+      </c>
+      <c r="H156" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>347</v>
+      </c>
+      <c r="B157" t="s">
+        <v>533</v>
+      </c>
+      <c r="C157" t="s">
+        <v>347</v>
+      </c>
+      <c r="D157" t="s">
+        <v>358</v>
+      </c>
+      <c r="E157" t="s">
+        <v>358</v>
+      </c>
+      <c r="F157" s="2">
+        <v>5</v>
+      </c>
+      <c r="G157" t="s">
+        <v>350</v>
+      </c>
+      <c r="H157" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>347</v>
+      </c>
+      <c r="B158" t="s">
+        <v>534</v>
+      </c>
+      <c r="C158" t="s">
+        <v>347</v>
+      </c>
+      <c r="D158" t="s">
+        <v>360</v>
+      </c>
+      <c r="E158" t="s">
+        <v>360</v>
+      </c>
+      <c r="F158" s="2">
+        <v>5</v>
+      </c>
+      <c r="G158" t="s">
+        <v>350</v>
+      </c>
+      <c r="H158" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>347</v>
+      </c>
+      <c r="B159" t="s">
+        <v>362</v>
+      </c>
+      <c r="C159" t="s">
+        <v>347</v>
+      </c>
+      <c r="D159" t="s">
+        <v>363</v>
+      </c>
+      <c r="E159" t="s">
+        <v>363</v>
+      </c>
+      <c r="F159" s="2">
+        <v>5</v>
+      </c>
+      <c r="G159" t="s">
+        <v>350</v>
+      </c>
+      <c r="H159" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>347</v>
+      </c>
+      <c r="B160" t="s">
+        <v>365</v>
+      </c>
+      <c r="C160" t="s">
+        <v>347</v>
+      </c>
+      <c r="D160" t="s">
+        <v>366</v>
+      </c>
+      <c r="E160" t="s">
+        <v>366</v>
+      </c>
+      <c r="F160" s="2">
+        <v>5</v>
+      </c>
+      <c r="G160" t="s">
+        <v>350</v>
+      </c>
+      <c r="H160" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>347</v>
+      </c>
+      <c r="B161" t="s">
+        <v>535</v>
+      </c>
+      <c r="C161" t="s">
+        <v>347</v>
+      </c>
+      <c r="D161" t="s">
+        <v>368</v>
+      </c>
+      <c r="E161" t="s">
+        <v>368</v>
+      </c>
+      <c r="F161" s="2">
+        <v>5</v>
+      </c>
+      <c r="G161" t="s">
+        <v>350</v>
+      </c>
+      <c r="H161" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>347</v>
+      </c>
+      <c r="B162" t="s">
+        <v>536</v>
+      </c>
+      <c r="C162" t="s">
+        <v>347</v>
+      </c>
+      <c r="D162" t="s">
+        <v>370</v>
+      </c>
+      <c r="E162" t="s">
+        <v>370</v>
+      </c>
+      <c r="F162" s="2">
+        <v>5</v>
+      </c>
+      <c r="G162" t="s">
+        <v>350</v>
+      </c>
+      <c r="H162" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>347</v>
+      </c>
+      <c r="B163" t="s">
+        <v>372</v>
+      </c>
+      <c r="C163" t="s">
+        <v>347</v>
+      </c>
+      <c r="D163" t="s">
+        <v>373</v>
+      </c>
+      <c r="E163" t="s">
+        <v>373</v>
+      </c>
+      <c r="F163" s="2">
+        <v>5</v>
+      </c>
+      <c r="G163" t="s">
+        <v>350</v>
+      </c>
+      <c r="H163" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>347</v>
+      </c>
+      <c r="B164" t="s">
+        <v>375</v>
+      </c>
+      <c r="C164" t="s">
+        <v>347</v>
+      </c>
+      <c r="D164" t="s">
+        <v>376</v>
+      </c>
+      <c r="E164" t="s">
+        <v>376</v>
+      </c>
+      <c r="F164" s="2">
+        <v>5</v>
+      </c>
+      <c r="G164" t="s">
+        <v>350</v>
+      </c>
+      <c r="H164" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>347</v>
+      </c>
+      <c r="B165" t="s">
+        <v>537</v>
+      </c>
+      <c r="C165" t="s">
+        <v>347</v>
+      </c>
+      <c r="D165" t="s">
+        <v>378</v>
+      </c>
+      <c r="E165" t="s">
+        <v>378</v>
+      </c>
+      <c r="F165" s="2">
+        <v>5</v>
+      </c>
+      <c r="G165" t="s">
+        <v>350</v>
+      </c>
+      <c r="H165" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>347</v>
+      </c>
+      <c r="B166" t="s">
+        <v>380</v>
+      </c>
+      <c r="C166" t="s">
+        <v>347</v>
+      </c>
+      <c r="D166" t="s">
+        <v>381</v>
+      </c>
+      <c r="E166" t="s">
+        <v>381</v>
+      </c>
+      <c r="F166" s="2">
+        <v>5</v>
+      </c>
+      <c r="G166" t="s">
+        <v>350</v>
+      </c>
+      <c r="H166" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>347</v>
+      </c>
+      <c r="B167" t="s">
+        <v>383</v>
+      </c>
+      <c r="C167" t="s">
+        <v>347</v>
+      </c>
+      <c r="D167" t="s">
+        <v>384</v>
+      </c>
+      <c r="E167" t="s">
+        <v>384</v>
+      </c>
+      <c r="F167" s="2">
+        <v>5</v>
+      </c>
+      <c r="G167" t="s">
+        <v>350</v>
+      </c>
+      <c r="H167" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>347</v>
+      </c>
+      <c r="B168" t="s">
+        <v>538</v>
+      </c>
+      <c r="C168" t="s">
+        <v>347</v>
+      </c>
+      <c r="D168" t="s">
+        <v>386</v>
+      </c>
+      <c r="E168" t="s">
+        <v>386</v>
+      </c>
+      <c r="F168" s="2">
+        <v>5</v>
+      </c>
+      <c r="G168" t="s">
+        <v>350</v>
+      </c>
+      <c r="H168" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>347</v>
+      </c>
+      <c r="B169" t="s">
+        <v>388</v>
+      </c>
+      <c r="C169" t="s">
+        <v>347</v>
+      </c>
+      <c r="D169" t="s">
+        <v>389</v>
+      </c>
+      <c r="E169" t="s">
+        <v>389</v>
+      </c>
+      <c r="F169" s="2">
+        <v>5</v>
+      </c>
+      <c r="G169" t="s">
+        <v>350</v>
+      </c>
+      <c r="H169" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>347</v>
+      </c>
+      <c r="B170" t="s">
+        <v>391</v>
+      </c>
+      <c r="C170" t="s">
+        <v>347</v>
+      </c>
+      <c r="D170" t="s">
+        <v>392</v>
+      </c>
+      <c r="E170" t="s">
+        <v>392</v>
+      </c>
+      <c r="F170" s="2">
+        <v>5</v>
+      </c>
+      <c r="G170" t="s">
+        <v>350</v>
+      </c>
+      <c r="H170" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>347</v>
+      </c>
+      <c r="B171" t="s">
+        <v>394</v>
+      </c>
+      <c r="C171" t="s">
+        <v>347</v>
+      </c>
+      <c r="D171" t="s">
+        <v>395</v>
+      </c>
+      <c r="E171" t="s">
+        <v>395</v>
+      </c>
+      <c r="F171" s="2">
+        <v>5</v>
+      </c>
+      <c r="G171" t="s">
+        <v>350</v>
+      </c>
+      <c r="H171" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>347</v>
+      </c>
+      <c r="B172" t="s">
+        <v>397</v>
+      </c>
+      <c r="C172" t="s">
+        <v>347</v>
+      </c>
+      <c r="D172" t="s">
+        <v>398</v>
+      </c>
+      <c r="E172" t="s">
+        <v>398</v>
+      </c>
+      <c r="F172" s="2">
+        <v>5</v>
+      </c>
+      <c r="G172" t="s">
+        <v>350</v>
+      </c>
+      <c r="H172" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>347</v>
+      </c>
+      <c r="B173" t="s">
+        <v>400</v>
+      </c>
+      <c r="C173" t="s">
+        <v>347</v>
+      </c>
+      <c r="D173" t="s">
+        <v>401</v>
+      </c>
+      <c r="E173" t="s">
+        <v>401</v>
+      </c>
+      <c r="F173" s="2">
+        <v>5</v>
+      </c>
+      <c r="G173" t="s">
+        <v>350</v>
+      </c>
+      <c r="H173" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>347</v>
+      </c>
+      <c r="B174" t="s">
+        <v>403</v>
+      </c>
+      <c r="C174" t="s">
+        <v>347</v>
+      </c>
+      <c r="D174" t="s">
+        <v>404</v>
+      </c>
+      <c r="E174" t="s">
+        <v>404</v>
+      </c>
+      <c r="F174" s="2">
+        <v>5</v>
+      </c>
+      <c r="G174" t="s">
+        <v>350</v>
+      </c>
+      <c r="H174" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>347</v>
+      </c>
+      <c r="B175" t="s">
+        <v>406</v>
+      </c>
+      <c r="C175" t="s">
+        <v>347</v>
+      </c>
+      <c r="D175" t="s">
+        <v>407</v>
+      </c>
+      <c r="E175" t="s">
+        <v>407</v>
+      </c>
+      <c r="F175" s="2">
+        <v>5</v>
+      </c>
+      <c r="G175" t="s">
+        <v>350</v>
+      </c>
+      <c r="H175" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>347</v>
+      </c>
+      <c r="B176" t="s">
+        <v>539</v>
+      </c>
+      <c r="C176" t="s">
+        <v>347</v>
+      </c>
+      <c r="D176" t="s">
+        <v>409</v>
+      </c>
+      <c r="E176" t="s">
+        <v>409</v>
+      </c>
+      <c r="F176" s="2">
+        <v>5</v>
+      </c>
+      <c r="G176" t="s">
+        <v>350</v>
+      </c>
+      <c r="H176" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>347</v>
+      </c>
+      <c r="B177" t="s">
+        <v>540</v>
+      </c>
+      <c r="C177" t="s">
+        <v>347</v>
+      </c>
+      <c r="D177" t="s">
+        <v>411</v>
+      </c>
+      <c r="E177" t="s">
+        <v>411</v>
+      </c>
+      <c r="F177" s="2">
+        <v>5</v>
+      </c>
+      <c r="G177" t="s">
+        <v>350</v>
+      </c>
+      <c r="H177" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>347</v>
+      </c>
+      <c r="B178" t="s">
+        <v>413</v>
+      </c>
+      <c r="C178" t="s">
+        <v>347</v>
+      </c>
+      <c r="D178" t="s">
+        <v>414</v>
+      </c>
+      <c r="E178" t="s">
+        <v>414</v>
+      </c>
+      <c r="F178" s="2">
+        <v>5</v>
+      </c>
+      <c r="G178" t="s">
+        <v>350</v>
+      </c>
+      <c r="H178" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>347</v>
+      </c>
+      <c r="B179" t="s">
+        <v>416</v>
+      </c>
+      <c r="C179" t="s">
+        <v>347</v>
+      </c>
+      <c r="D179" t="s">
+        <v>417</v>
+      </c>
+      <c r="E179" t="s">
+        <v>417</v>
+      </c>
+      <c r="F179" s="2">
+        <v>5</v>
+      </c>
+      <c r="G179" t="s">
+        <v>350</v>
+      </c>
+      <c r="H179" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>347</v>
+      </c>
+      <c r="B180" t="s">
+        <v>419</v>
+      </c>
+      <c r="C180" t="s">
+        <v>347</v>
+      </c>
+      <c r="D180" t="s">
+        <v>420</v>
+      </c>
+      <c r="E180" t="s">
+        <v>420</v>
+      </c>
+      <c r="F180" s="2">
+        <v>5</v>
+      </c>
+      <c r="G180" t="s">
+        <v>350</v>
+      </c>
+      <c r="H180" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>347</v>
+      </c>
+      <c r="B181" t="s">
+        <v>422</v>
+      </c>
+      <c r="C181" t="s">
+        <v>347</v>
+      </c>
+      <c r="D181" t="s">
+        <v>423</v>
+      </c>
+      <c r="E181" t="s">
+        <v>423</v>
+      </c>
+      <c r="F181" s="2">
+        <v>5</v>
+      </c>
+      <c r="G181" t="s">
+        <v>350</v>
+      </c>
+      <c r="H181" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>347</v>
+      </c>
+      <c r="B182" t="s">
+        <v>425</v>
+      </c>
+      <c r="C182" t="s">
+        <v>347</v>
+      </c>
+      <c r="D182" t="s">
+        <v>426</v>
+      </c>
+      <c r="E182" t="s">
+        <v>426</v>
+      </c>
+      <c r="F182" s="2">
+        <v>5</v>
+      </c>
+      <c r="G182" t="s">
+        <v>350</v>
+      </c>
+      <c r="H182" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>347</v>
+      </c>
+      <c r="B183" t="s">
+        <v>541</v>
+      </c>
+      <c r="C183" t="s">
+        <v>347</v>
+      </c>
+      <c r="D183" t="s">
+        <v>428</v>
+      </c>
+      <c r="E183" t="s">
+        <v>428</v>
+      </c>
+      <c r="F183" s="2">
+        <v>5</v>
+      </c>
+      <c r="G183" t="s">
+        <v>350</v>
+      </c>
+      <c r="H183" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>347</v>
+      </c>
+      <c r="B184" t="s">
+        <v>430</v>
+      </c>
+      <c r="C184" t="s">
+        <v>347</v>
+      </c>
+      <c r="D184" t="s">
+        <v>431</v>
+      </c>
+      <c r="E184" t="s">
+        <v>431</v>
+      </c>
+      <c r="F184" s="2">
+        <v>5</v>
+      </c>
+      <c r="G184" t="s">
+        <v>350</v>
+      </c>
+      <c r="H184" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>347</v>
+      </c>
+      <c r="B185" t="s">
+        <v>433</v>
+      </c>
+      <c r="C185" t="s">
+        <v>347</v>
+      </c>
+      <c r="D185" t="s">
+        <v>434</v>
+      </c>
+      <c r="E185" t="s">
+        <v>434</v>
+      </c>
+      <c r="F185" s="2">
+        <v>5</v>
+      </c>
+      <c r="G185" t="s">
+        <v>350</v>
+      </c>
+      <c r="H185" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>347</v>
+      </c>
+      <c r="B186" t="s">
+        <v>436</v>
+      </c>
+      <c r="C186" t="s">
+        <v>347</v>
+      </c>
+      <c r="D186" t="s">
+        <v>437</v>
+      </c>
+      <c r="E186" t="s">
+        <v>437</v>
+      </c>
+      <c r="F186" s="2">
+        <v>5</v>
+      </c>
+      <c r="G186" t="s">
+        <v>350</v>
+      </c>
+      <c r="H186" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>347</v>
+      </c>
+      <c r="B187" t="s">
+        <v>439</v>
+      </c>
+      <c r="C187" t="s">
+        <v>347</v>
+      </c>
+      <c r="D187" t="s">
+        <v>440</v>
+      </c>
+      <c r="E187" t="s">
+        <v>440</v>
+      </c>
+      <c r="F187" s="2">
+        <v>5</v>
+      </c>
+      <c r="G187" t="s">
+        <v>350</v>
+      </c>
+      <c r="H187" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>347</v>
+      </c>
+      <c r="B188" t="s">
+        <v>542</v>
+      </c>
+      <c r="C188" t="s">
+        <v>347</v>
+      </c>
+      <c r="D188" t="s">
+        <v>442</v>
+      </c>
+      <c r="E188" t="s">
+        <v>442</v>
+      </c>
+      <c r="F188" s="2">
+        <v>5</v>
+      </c>
+      <c r="G188" t="s">
+        <v>350</v>
+      </c>
+      <c r="H188" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>347</v>
+      </c>
+      <c r="B189" t="s">
+        <v>543</v>
+      </c>
+      <c r="C189" t="s">
+        <v>347</v>
+      </c>
+      <c r="D189" t="s">
+        <v>444</v>
+      </c>
+      <c r="E189" t="s">
+        <v>444</v>
+      </c>
+      <c r="F189" s="2">
+        <v>5</v>
+      </c>
+      <c r="G189" t="s">
+        <v>350</v>
+      </c>
+      <c r="H189" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>347</v>
+      </c>
+      <c r="B190" t="s">
+        <v>544</v>
+      </c>
+      <c r="C190" t="s">
+        <v>347</v>
+      </c>
+      <c r="D190" t="s">
+        <v>446</v>
+      </c>
+      <c r="E190" t="s">
+        <v>446</v>
+      </c>
+      <c r="F190" s="2">
+        <v>5</v>
+      </c>
+      <c r="G190" t="s">
+        <v>350</v>
+      </c>
+      <c r="H190" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>347</v>
+      </c>
+      <c r="B191" t="s">
+        <v>545</v>
+      </c>
+      <c r="C191" t="s">
+        <v>347</v>
+      </c>
+      <c r="D191" t="s">
+        <v>448</v>
+      </c>
+      <c r="E191" t="s">
+        <v>448</v>
+      </c>
+      <c r="F191" s="2">
+        <v>5</v>
+      </c>
+      <c r="G191" t="s">
+        <v>350</v>
+      </c>
+      <c r="H191" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>347</v>
+      </c>
+      <c r="B192" t="s">
+        <v>546</v>
+      </c>
+      <c r="C192" t="s">
+        <v>347</v>
+      </c>
+      <c r="D192" t="s">
+        <v>450</v>
+      </c>
+      <c r="E192" t="s">
+        <v>450</v>
+      </c>
+      <c r="F192" s="2">
+        <v>5</v>
+      </c>
+      <c r="G192" t="s">
+        <v>350</v>
+      </c>
+      <c r="H192" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>347</v>
+      </c>
+      <c r="B193" t="s">
+        <v>452</v>
+      </c>
+      <c r="C193" t="s">
+        <v>347</v>
+      </c>
+      <c r="D193" t="s">
+        <v>453</v>
+      </c>
+      <c r="E193" t="s">
+        <v>453</v>
+      </c>
+      <c r="F193" s="2">
+        <v>5</v>
+      </c>
+      <c r="G193" t="s">
+        <v>350</v>
+      </c>
+      <c r="H193" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>347</v>
+      </c>
+      <c r="B194" t="s">
+        <v>547</v>
+      </c>
+      <c r="C194" t="s">
+        <v>347</v>
+      </c>
+      <c r="D194" t="s">
+        <v>455</v>
+      </c>
+      <c r="E194" t="s">
+        <v>455</v>
+      </c>
+      <c r="F194" s="2">
+        <v>5</v>
+      </c>
+      <c r="G194" t="s">
+        <v>350</v>
+      </c>
+      <c r="H194" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>347</v>
+      </c>
+      <c r="B195" t="s">
+        <v>548</v>
+      </c>
+      <c r="C195" t="s">
+        <v>347</v>
+      </c>
+      <c r="D195" t="s">
+        <v>457</v>
+      </c>
+      <c r="E195" t="s">
+        <v>457</v>
+      </c>
+      <c r="F195" s="2">
+        <v>5</v>
+      </c>
+      <c r="G195" t="s">
+        <v>350</v>
+      </c>
+      <c r="H195" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>347</v>
+      </c>
+      <c r="B196" t="s">
+        <v>549</v>
+      </c>
+      <c r="C196" t="s">
+        <v>347</v>
+      </c>
+      <c r="D196" t="s">
+        <v>459</v>
+      </c>
+      <c r="E196" t="s">
+        <v>459</v>
+      </c>
+      <c r="F196" s="2">
+        <v>5</v>
+      </c>
+      <c r="G196" t="s">
+        <v>350</v>
+      </c>
+      <c r="H196" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>347</v>
+      </c>
+      <c r="B197" t="s">
+        <v>461</v>
+      </c>
+      <c r="C197" t="s">
+        <v>347</v>
+      </c>
+      <c r="D197" t="s">
+        <v>462</v>
+      </c>
+      <c r="E197" t="s">
+        <v>462</v>
+      </c>
+      <c r="F197" s="2">
+        <v>5</v>
+      </c>
+      <c r="G197" t="s">
+        <v>350</v>
+      </c>
+      <c r="H197" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>347</v>
+      </c>
+      <c r="B198" t="s">
+        <v>464</v>
+      </c>
+      <c r="C198" t="s">
+        <v>347</v>
+      </c>
+      <c r="D198" t="s">
+        <v>465</v>
+      </c>
+      <c r="E198" t="s">
+        <v>465</v>
+      </c>
+      <c r="F198" s="2">
+        <v>5</v>
+      </c>
+      <c r="G198" t="s">
+        <v>350</v>
+      </c>
+      <c r="H198" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>347</v>
+      </c>
+      <c r="B199" t="s">
+        <v>550</v>
+      </c>
+      <c r="C199" t="s">
+        <v>347</v>
+      </c>
+      <c r="D199" t="s">
+        <v>467</v>
+      </c>
+      <c r="E199" t="s">
+        <v>467</v>
+      </c>
+      <c r="F199" s="2">
+        <v>5</v>
+      </c>
+      <c r="G199" t="s">
+        <v>350</v>
+      </c>
+      <c r="H199" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>347</v>
+      </c>
+      <c r="B200" t="s">
+        <v>469</v>
+      </c>
+      <c r="C200" t="s">
+        <v>347</v>
+      </c>
+      <c r="D200" t="s">
+        <v>470</v>
+      </c>
+      <c r="E200" t="s">
+        <v>470</v>
+      </c>
+      <c r="F200" s="2">
+        <v>5</v>
+      </c>
+      <c r="G200" t="s">
+        <v>350</v>
+      </c>
+      <c r="H200" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>347</v>
+      </c>
+      <c r="B201" t="s">
+        <v>472</v>
+      </c>
+      <c r="C201" t="s">
+        <v>347</v>
+      </c>
+      <c r="D201" t="s">
+        <v>473</v>
+      </c>
+      <c r="E201" t="s">
+        <v>473</v>
+      </c>
+      <c r="F201" s="2">
+        <v>5</v>
+      </c>
+      <c r="G201" t="s">
+        <v>350</v>
+      </c>
+      <c r="H201" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>347</v>
+      </c>
+      <c r="B202" t="s">
+        <v>551</v>
+      </c>
+      <c r="C202" t="s">
+        <v>347</v>
+      </c>
+      <c r="D202" t="s">
+        <v>475</v>
+      </c>
+      <c r="E202" t="s">
+        <v>475</v>
+      </c>
+      <c r="F202" s="2">
+        <v>5</v>
+      </c>
+      <c r="G202" t="s">
+        <v>350</v>
+      </c>
+      <c r="H202" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>347</v>
+      </c>
+      <c r="B203" t="s">
+        <v>552</v>
+      </c>
+      <c r="C203" t="s">
+        <v>347</v>
+      </c>
+      <c r="D203" t="s">
+        <v>477</v>
+      </c>
+      <c r="E203" t="s">
+        <v>477</v>
+      </c>
+      <c r="F203" s="2">
+        <v>5</v>
+      </c>
+      <c r="G203" t="s">
+        <v>350</v>
+      </c>
+      <c r="H203" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>347</v>
+      </c>
+      <c r="B204" t="s">
+        <v>553</v>
+      </c>
+      <c r="C204" t="s">
+        <v>347</v>
+      </c>
+      <c r="D204" t="s">
+        <v>479</v>
+      </c>
+      <c r="E204" t="s">
+        <v>479</v>
+      </c>
+      <c r="F204" s="2">
+        <v>5</v>
+      </c>
+      <c r="G204" t="s">
+        <v>350</v>
+      </c>
+      <c r="H204" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>347</v>
+      </c>
+      <c r="B205" t="s">
+        <v>481</v>
+      </c>
+      <c r="C205" t="s">
+        <v>347</v>
+      </c>
+      <c r="D205" t="s">
+        <v>482</v>
+      </c>
+      <c r="E205" t="s">
+        <v>482</v>
+      </c>
+      <c r="F205" s="2">
+        <v>5</v>
+      </c>
+      <c r="G205" t="s">
+        <v>350</v>
+      </c>
+      <c r="H205" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>347</v>
+      </c>
+      <c r="B206" t="s">
+        <v>554</v>
+      </c>
+      <c r="C206" t="s">
+        <v>347</v>
+      </c>
+      <c r="D206" t="s">
+        <v>484</v>
+      </c>
+      <c r="E206" t="s">
+        <v>484</v>
+      </c>
+      <c r="F206" s="2">
+        <v>5</v>
+      </c>
+      <c r="G206" t="s">
+        <v>350</v>
+      </c>
+      <c r="H206" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>347</v>
+      </c>
+      <c r="B207" t="s">
+        <v>486</v>
+      </c>
+      <c r="C207" t="s">
+        <v>347</v>
+      </c>
+      <c r="D207" t="s">
+        <v>487</v>
+      </c>
+      <c r="E207" t="s">
+        <v>487</v>
+      </c>
+      <c r="F207" s="2">
+        <v>5</v>
+      </c>
+      <c r="G207" t="s">
+        <v>350</v>
+      </c>
+      <c r="H207" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>347</v>
+      </c>
+      <c r="B208" t="s">
+        <v>555</v>
+      </c>
+      <c r="C208" t="s">
+        <v>347</v>
+      </c>
+      <c r="D208" t="s">
+        <v>489</v>
+      </c>
+      <c r="E208" t="s">
+        <v>489</v>
+      </c>
+      <c r="F208" s="2">
+        <v>5</v>
+      </c>
+      <c r="G208" t="s">
+        <v>350</v>
+      </c>
+      <c r="H208" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>347</v>
+      </c>
+      <c r="B209" t="s">
+        <v>491</v>
+      </c>
+      <c r="C209" t="s">
+        <v>347</v>
+      </c>
+      <c r="D209" t="s">
+        <v>492</v>
+      </c>
+      <c r="E209" t="s">
+        <v>492</v>
+      </c>
+      <c r="F209" s="2">
+        <v>5</v>
+      </c>
+      <c r="G209" t="s">
+        <v>350</v>
+      </c>
+      <c r="H209" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>347</v>
+      </c>
+      <c r="B210" t="s">
+        <v>556</v>
+      </c>
+      <c r="C210" t="s">
+        <v>347</v>
+      </c>
+      <c r="D210" t="s">
+        <v>494</v>
+      </c>
+      <c r="E210" t="s">
+        <v>494</v>
+      </c>
+      <c r="F210" s="2">
+        <v>5</v>
+      </c>
+      <c r="G210" t="s">
+        <v>350</v>
+      </c>
+      <c r="H210" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>347</v>
+      </c>
+      <c r="B211" t="s">
+        <v>557</v>
+      </c>
+      <c r="C211" t="s">
+        <v>347</v>
+      </c>
+      <c r="D211" t="s">
+        <v>496</v>
+      </c>
+      <c r="E211" t="s">
+        <v>496</v>
+      </c>
+      <c r="F211" s="2">
+        <v>5</v>
+      </c>
+      <c r="G211" t="s">
+        <v>350</v>
+      </c>
+      <c r="H211" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>347</v>
+      </c>
+      <c r="B212" t="s">
+        <v>558</v>
+      </c>
+      <c r="C212" t="s">
+        <v>347</v>
+      </c>
+      <c r="D212" t="s">
+        <v>498</v>
+      </c>
+      <c r="E212" t="s">
+        <v>498</v>
+      </c>
+      <c r="F212" s="2">
+        <v>5</v>
+      </c>
+      <c r="G212" t="s">
+        <v>350</v>
+      </c>
+      <c r="H212" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>347</v>
+      </c>
+      <c r="B213" t="s">
+        <v>559</v>
+      </c>
+      <c r="C213" t="s">
+        <v>347</v>
+      </c>
+      <c r="D213" t="s">
+        <v>500</v>
+      </c>
+      <c r="E213" t="s">
+        <v>500</v>
+      </c>
+      <c r="F213" s="2">
+        <v>5</v>
+      </c>
+      <c r="G213" t="s">
+        <v>350</v>
+      </c>
+      <c r="H213" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>347</v>
+      </c>
+      <c r="B214" t="s">
+        <v>560</v>
+      </c>
+      <c r="C214" t="s">
+        <v>347</v>
+      </c>
+      <c r="D214" t="s">
+        <v>502</v>
+      </c>
+      <c r="E214" t="s">
+        <v>502</v>
+      </c>
+      <c r="F214" s="2">
+        <v>5</v>
+      </c>
+      <c r="G214" t="s">
+        <v>350</v>
+      </c>
+      <c r="H214" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>347</v>
+      </c>
+      <c r="B215" t="s">
+        <v>504</v>
+      </c>
+      <c r="C215" t="s">
+        <v>347</v>
+      </c>
+      <c r="D215" t="s">
+        <v>505</v>
+      </c>
+      <c r="E215" t="s">
+        <v>505</v>
+      </c>
+      <c r="F215" s="2">
+        <v>5</v>
+      </c>
+      <c r="G215" t="s">
+        <v>350</v>
+      </c>
+      <c r="H215" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>347</v>
+      </c>
+      <c r="B216" t="s">
+        <v>507</v>
+      </c>
+      <c r="C216" t="s">
+        <v>347</v>
+      </c>
+      <c r="D216" t="s">
+        <v>508</v>
+      </c>
+      <c r="E216" t="s">
+        <v>508</v>
+      </c>
+      <c r="F216" s="2">
+        <v>5</v>
+      </c>
+      <c r="G216" t="s">
+        <v>350</v>
+      </c>
+      <c r="H216" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>347</v>
+      </c>
+      <c r="B217" t="s">
+        <v>510</v>
+      </c>
+      <c r="C217" t="s">
+        <v>347</v>
+      </c>
+      <c r="D217" t="s">
+        <v>511</v>
+      </c>
+      <c r="E217" t="s">
+        <v>511</v>
+      </c>
+      <c r="F217" s="2">
+        <v>5</v>
+      </c>
+      <c r="G217" t="s">
+        <v>350</v>
+      </c>
+      <c r="H217" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>347</v>
+      </c>
+      <c r="B218" t="s">
+        <v>513</v>
+      </c>
+      <c r="C218" t="s">
+        <v>347</v>
+      </c>
+      <c r="D218" t="s">
+        <v>514</v>
+      </c>
+      <c r="E218" t="s">
+        <v>514</v>
+      </c>
+      <c r="F218" s="2">
+        <v>5</v>
+      </c>
+      <c r="G218" t="s">
+        <v>350</v>
+      </c>
+      <c r="H218" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>347</v>
+      </c>
+      <c r="B219" t="s">
+        <v>561</v>
+      </c>
+      <c r="C219" t="s">
+        <v>347</v>
+      </c>
+      <c r="D219" t="s">
+        <v>516</v>
+      </c>
+      <c r="E219" t="s">
+        <v>516</v>
+      </c>
+      <c r="F219" s="2">
+        <v>5</v>
+      </c>
+      <c r="G219" t="s">
+        <v>350</v>
+      </c>
+      <c r="H219" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>347</v>
+      </c>
+      <c r="B220" t="s">
+        <v>518</v>
+      </c>
+      <c r="C220" t="s">
+        <v>347</v>
+      </c>
+      <c r="D220" t="s">
+        <v>519</v>
+      </c>
+      <c r="E220" t="s">
+        <v>519</v>
+      </c>
+      <c r="F220" s="2">
+        <v>5</v>
+      </c>
+      <c r="G220" t="s">
+        <v>350</v>
+      </c>
+      <c r="H220" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>347</v>
+      </c>
+      <c r="B221" t="s">
+        <v>521</v>
+      </c>
+      <c r="C221" t="s">
+        <v>347</v>
+      </c>
+      <c r="D221" t="s">
+        <v>522</v>
+      </c>
+      <c r="E221" t="s">
+        <v>522</v>
+      </c>
+      <c r="F221" s="2">
+        <v>5</v>
+      </c>
+      <c r="G221" t="s">
+        <v>350</v>
+      </c>
+      <c r="H221" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>347</v>
+      </c>
+      <c r="B222" t="s">
+        <v>562</v>
+      </c>
+      <c r="C222" t="s">
+        <v>347</v>
+      </c>
+      <c r="D222" t="s">
+        <v>524</v>
+      </c>
+      <c r="E222" t="s">
+        <v>524</v>
+      </c>
+      <c r="F222" s="2">
+        <v>5</v>
+      </c>
+      <c r="G222" t="s">
+        <v>350</v>
+      </c>
+      <c r="H222" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>347</v>
+      </c>
+      <c r="B223" t="s">
+        <v>563</v>
+      </c>
+      <c r="C223" t="s">
+        <v>347</v>
+      </c>
+      <c r="D223" t="s">
+        <v>526</v>
+      </c>
+      <c r="E223" t="s">
+        <v>526</v>
+      </c>
+      <c r="F223" s="2">
+        <v>5</v>
+      </c>
+      <c r="G223" t="s">
+        <v>350</v>
+      </c>
+      <c r="H223" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>347</v>
+      </c>
+      <c r="B224" t="s">
+        <v>564</v>
+      </c>
+      <c r="C224" t="s">
+        <v>347</v>
+      </c>
+      <c r="D224" t="s">
+        <v>528</v>
+      </c>
+      <c r="E224" t="s">
+        <v>528</v>
+      </c>
+      <c r="F224" s="2">
+        <v>5</v>
+      </c>
+      <c r="G224" t="s">
+        <v>350</v>
+      </c>
+      <c r="H224" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>347</v>
+      </c>
+      <c r="B225" t="s">
+        <v>530</v>
+      </c>
+      <c r="C225" t="s">
+        <v>347</v>
+      </c>
+      <c r="D225" t="s">
+        <v>531</v>
+      </c>
+      <c r="E225" t="s">
+        <v>531</v>
+      </c>
+      <c r="F225" s="2">
+        <v>5</v>
+      </c>
+      <c r="G225" t="s">
+        <v>350</v>
+      </c>
+      <c r="H225" t="s">
+        <v>532</v>
       </c>
     </row>
   </sheetData>
@@ -1130,75 +8609,90 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.875" customWidth="1"/>
-    <col min="2" max="2" width="9" style="3"/>
-    <col min="3" max="3" width="16.5" customWidth="1"/>
-    <col min="4" max="4" width="9" style="3"/>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="9" style="2"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
+    <col min="4" max="4" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.65" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3">
+      <c r="B1" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="3">
+      <c r="C1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B2" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="3">
+      <c r="C2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B3" s="2">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B4" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="3">
+      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.65" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>1</v>
       </c>
       <c r="C9" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>3</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>4</v>
       </c>
     </row>
@@ -1206,13 +8700,13 @@
       <c r="A11" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>5</v>
       </c>
       <c r="C11" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>6</v>
       </c>
     </row>
@@ -1220,13 +8714,13 @@
       <c r="A12" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>7</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <v>8</v>
       </c>
     </row>
@@ -1234,13 +8728,13 @@
       <c r="A13" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>9</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <v>10</v>
       </c>
     </row>
@@ -1248,13 +8742,13 @@
       <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <v>11</v>
       </c>
       <c r="C14" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="2">
         <v>12</v>
       </c>
     </row>
@@ -1262,13 +8756,13 @@
       <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <v>13</v>
       </c>
       <c r="C15" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="2">
         <v>14</v>
       </c>
     </row>
@@ -1276,13 +8770,13 @@
       <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="2">
         <v>15</v>
       </c>
       <c r="C16" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="2">
         <v>16</v>
       </c>
     </row>
@@ -1290,13 +8784,13 @@
       <c r="A17" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <v>17</v>
       </c>
       <c r="C17" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="2">
         <v>18</v>
       </c>
     </row>
@@ -1304,13 +8798,13 @@
       <c r="A18" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <v>19</v>
       </c>
       <c r="C18" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="2">
         <v>20</v>
       </c>
     </row>
@@ -1318,13 +8812,13 @@
       <c r="A19" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="2">
         <v>21</v>
       </c>
       <c r="C19" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="2">
         <v>22</v>
       </c>
     </row>
@@ -1332,13 +8826,13 @@
       <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="2">
         <v>23</v>
       </c>
       <c r="C20" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="2">
         <v>24</v>
       </c>
     </row>
@@ -1346,13 +8840,13 @@
       <c r="A21" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="2">
         <v>25</v>
       </c>
       <c r="C21" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="2">
         <v>26</v>
       </c>
     </row>
@@ -1360,13 +8854,13 @@
       <c r="A22" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="2">
         <v>27</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="2">
         <v>28</v>
       </c>
     </row>
@@ -1374,13 +8868,13 @@
       <c r="A23" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="2">
         <v>29</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="2">
         <v>30</v>
       </c>
     </row>
@@ -1388,13 +8882,13 @@
       <c r="A24" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="2">
         <v>31</v>
       </c>
       <c r="C24" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="2">
         <v>32</v>
       </c>
     </row>
@@ -1402,13 +8896,13 @@
       <c r="A25" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="2">
         <v>33</v>
       </c>
       <c r="C25" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="2">
         <v>34</v>
       </c>
     </row>
@@ -1416,13 +8910,13 @@
       <c r="A26" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="2">
         <v>35</v>
       </c>
       <c r="C26" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="2">
         <v>36</v>
       </c>
     </row>
@@ -1430,13 +8924,13 @@
       <c r="A27" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="2">
         <v>37</v>
       </c>
       <c r="C27" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="2">
         <v>38</v>
       </c>
     </row>
@@ -1444,13 +8938,13 @@
       <c r="A28" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="2">
         <v>39</v>
       </c>
       <c r="C28" t="s">
         <v>40</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="2">
         <v>40</v>
       </c>
     </row>
